--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 80</t>
+          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -554,12 +554,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>10,88</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 20</t>
+          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -617,12 +617,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>33,32</t>
+          <t>28,26</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>133,28</t>
+          <t>226,08</t>
         </is>
       </c>
     </row>
@@ -642,12 +642,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -680,12 +680,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>33,32</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>108,8</t>
+          <t>366,52</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -743,12 +743,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>11,29</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>372,57</t>
+          <t>10,88</t>
         </is>
       </c>
     </row>
@@ -763,17 +763,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -783,12 +783,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -806,12 +806,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>112,9</t>
         </is>
       </c>
     </row>
@@ -826,17 +826,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -869,12 +869,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>16,08</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>42,12</t>
+          <t>32,16</t>
         </is>
       </c>
     </row>
@@ -884,22 +884,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 160</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -909,12 +909,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -923,21 +923,21 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>20,3</t>
         </is>
       </c>
     </row>
@@ -947,17 +947,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 160</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -972,35 +972,35 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>8,48</t>
         </is>
       </c>
     </row>
@@ -1010,22 +1010,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 160</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1049,21 +1049,21 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>14,5</t>
         </is>
       </c>
     </row>
@@ -1073,22 +1073,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1112,21 +1112,21 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>45,36</t>
         </is>
       </c>
     </row>
@@ -1136,22 +1136,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1161,17 +1161,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>10,82</t>
         </is>
       </c>
     </row>
@@ -1204,17 +1204,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>45L</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1224,21 +1224,21 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1247,12 +1247,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>2,04</t>
         </is>
       </c>
     </row>
@@ -1272,12 +1272,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9,  IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 40</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1287,21 +1287,21 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1310,12 +1310,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>15,35</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>153,5</t>
         </is>
       </c>
     </row>
@@ -1330,17 +1330,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CAP</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CAP, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1373,12 +1373,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>16,57</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>99,42</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CPL</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1413,21 +1413,21 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1436,12 +1436,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>2,6</t>
         </is>
       </c>
     </row>
@@ -1456,27 +1456,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 40</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20x40</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1499,12 +1499,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4,06</t>
         </is>
       </c>
     </row>
@@ -1519,27 +1519,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1562,12 +1562,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7,8</t>
         </is>
       </c>
     </row>
@@ -1582,41 +1582,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1625,12 +1625,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,96</t>
         </is>
       </c>
     </row>
@@ -1645,41 +1645,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ERE</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 40</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1688,12 +1688,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>3,85</t>
         </is>
       </c>
     </row>
@@ -1708,41 +1708,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ERE</t>
+          <t>CAP</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>CAP, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1751,12 +1751,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>0,28</t>
         </is>
       </c>
     </row>
@@ -1771,41 +1771,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>CAP</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>CAP, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,88</t>
         </is>
       </c>
     </row>
@@ -1834,22 +1834,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1877,12 +1877,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,44</t>
         </is>
       </c>
     </row>
@@ -1897,41 +1897,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 40</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20x40</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1940,12 +1940,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1960,41 +1960,41 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 40 x 40</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40x 40</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2003,12 +2003,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2023,12 +2023,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>ERE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 40</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2038,26 +2038,26 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20x40</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2066,12 +2066,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -2086,41 +2086,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 160 L= 100 mm</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2129,12 +2129,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,424</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,848</t>
         </is>
       </c>
     </row>
@@ -2149,41 +2149,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SWC</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, BExPE, SCH 40x80 </t>
+          <t>REDUCING TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>40x80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>BExPE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2,73</t>
+          <t>2,7</t>
         </is>
       </c>
     </row>
@@ -2212,41 +2212,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 40</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20x40</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2255,12 +2255,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>28</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -2275,27 +2275,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 40</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20x40</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2318,12 +2318,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>28</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -2338,41 +2338,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2381,12 +2381,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>0,54</t>
         </is>
       </c>
     </row>
@@ -2401,41 +2401,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 80</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2444,12 +2444,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -2464,41 +2464,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 40</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2507,12 +2507,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,94</t>
         </is>
       </c>
     </row>
@@ -2522,42 +2522,42 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>SWC</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, PExPE, SCH 80x80</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80x80</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>PExPE</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -2570,12 +2570,12 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>1,06</t>
         </is>
       </c>
     </row>
@@ -2585,22 +2585,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2615,12 +2615,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>8,2</t>
+          <t>0,66</t>
         </is>
       </c>
     </row>
@@ -2648,22 +2648,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2673,21 +2673,21 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2696,12 +2696,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>29</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>58</t>
         </is>
       </c>
     </row>
@@ -2711,22 +2711,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 40</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2736,21 +2736,21 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2759,12 +2759,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>19,3</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>38,6</t>
         </is>
       </c>
     </row>
@@ -2774,46 +2774,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 40</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40x40</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2822,12 +2822,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>4,74</t>
         </is>
       </c>
     </row>
@@ -2837,17 +2837,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 20</t>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 40</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2857,26 +2857,26 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>20x40</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -2885,12 +2885,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>17,3</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>17,3</t>
+          <t>6,32</t>
         </is>
       </c>
     </row>
@@ -2900,46 +2900,46 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 40</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20x40</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>12,75</t>
+          <t>3,62</t>
         </is>
       </c>
     </row>
@@ -2968,17 +2968,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>BLD</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3011,12 +3011,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>39,76</t>
+          <t>15,4</t>
         </is>
       </c>
     </row>
@@ -3031,17 +3031,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 600, RF</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3061,11 +3061,11 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>600</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3074,12 +3074,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>5,4</t>
         </is>
       </c>
     </row>
@@ -3099,12 +3099,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 20</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3128,7 +3128,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3137,12 +3137,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>17,3</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>21,82</t>
+          <t>103,8</t>
         </is>
       </c>
     </row>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 1500, RF, SCH 80</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3187,11 +3187,11 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3200,12 +3200,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>20,4</t>
         </is>
       </c>
     </row>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 80</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3250,11 +3250,11 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -3263,12 +3263,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>7,46</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>7,46</t>
+          <t>9,94</t>
         </is>
       </c>
     </row>
@@ -3278,22 +3278,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -3326,12 +3326,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>0,175</t>
+          <t>42,66</t>
         </is>
       </c>
     </row>
@@ -3341,22 +3341,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3366,7 +3366,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -3389,12 +3389,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>0,047</t>
+          <t>8,92</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>17,84</t>
         </is>
       </c>
     </row>
@@ -3404,22 +3404,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3429,7 +3429,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3443,7 +3443,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -3452,12 +3452,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0,097</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>0,388</t>
+          <t>21,82</t>
         </is>
       </c>
     </row>
@@ -3467,22 +3467,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 80</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3502,11 +3502,11 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -3515,12 +3515,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>0,148</t>
+          <t>21,52</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>1,332</t>
+          <t>86,08</t>
         </is>
       </c>
     </row>
@@ -3530,22 +3530,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 600, RF, SCH 40</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3565,11 +3565,11 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>600</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -3578,12 +3578,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>49,68</t>
         </is>
       </c>
     </row>
@@ -3593,22 +3593,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 600, RF, SCH 40</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>600</t>
         </is>
       </c>
       <c r="J51" t="n">
@@ -3641,12 +3641,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>0,302</t>
+          <t>17,09</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>0,604</t>
+          <t>34,18</t>
         </is>
       </c>
     </row>
@@ -3656,22 +3656,22 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 600, RF, SCH 40</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3691,11 +3691,11 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>600</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -3704,12 +3704,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>0,434</t>
+          <t>33,62</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>0,434</t>
+          <t>268,96</t>
         </is>
       </c>
     </row>
@@ -3729,12 +3729,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3754,11 +3754,11 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -3767,12 +3767,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>0,087</t>
+          <t>0,097</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>0,087</t>
+          <t>0,776</t>
         </is>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3817,11 +3817,11 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -3830,12 +3830,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>0,192</t>
+          <t>0,148</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>0,192</t>
+          <t>0,296</t>
         </is>
       </c>
     </row>
@@ -3855,12 +3855,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 900, RF</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3880,11 +3880,11 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -3893,12 +3893,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>0,216</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,41</t>
         </is>
       </c>
     </row>
@@ -3908,27 +3908,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>70mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3938,16 +3938,16 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>0,125</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>0,52</t>
         </is>
       </c>
     </row>
@@ -3971,27 +3971,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>75mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4001,16 +4001,16 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -4019,12 +4019,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>0,129</t>
+          <t>0,302</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>1,548</t>
+          <t>0,604</t>
         </is>
       </c>
     </row>
@@ -4034,27 +4034,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4064,16 +4064,16 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -4082,12 +4082,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>0,434</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>10,34</t>
+          <t>2,604</t>
         </is>
       </c>
     </row>
@@ -4097,27 +4097,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>90mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4127,16 +4127,16 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -4145,12 +4145,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,468</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>3,552</t>
+          <t>1,872</t>
         </is>
       </c>
     </row>
@@ -4160,27 +4160,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 600, RF</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>95mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4190,16 +4190,16 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>600</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -4208,12 +4208,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>0,229</t>
+          <t>0,087</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>1,832</t>
+          <t>0,174</t>
         </is>
       </c>
     </row>
@@ -4223,27 +4223,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 600, RF</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4253,16 +4253,16 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>600</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -4271,12 +4271,12 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>0,373</t>
+          <t>0,113</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>1,492</t>
+          <t>1,469</t>
         </is>
       </c>
     </row>
@@ -4286,27 +4286,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 600, RF</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4316,16 +4316,16 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>600</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -4334,12 +4334,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>0,401</t>
+          <t>0,263</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>6,416</t>
+          <t>0,526</t>
         </is>
       </c>
     </row>
@@ -4349,27 +4349,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 600, RF</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>120mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4379,16 +4379,16 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>600</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -4397,12 +4397,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,468</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>8,2</t>
+          <t>3,744</t>
         </is>
       </c>
     </row>
@@ -4427,12 +4427,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0,875</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>160mm</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4451,7 +4451,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -4460,12 +4460,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>0,681</t>
+          <t>0,129</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>21,792</t>
+          <t>1,032</t>
         </is>
       </c>
     </row>
@@ -4475,27 +4475,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>FIGURE-8 BLANK, CS, ASTM A516 Gr.70, ASME B16.48, CLASS 150, RF</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4505,16 +4505,16 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -4523,12 +4523,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,137</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>6,576</t>
         </is>
       </c>
     </row>
@@ -4538,27 +4538,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>115mm</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4568,16 +4568,16 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -4586,12 +4586,12 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>0,656</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>62,976</t>
         </is>
       </c>
     </row>
@@ -4601,27 +4601,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>115mm</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4631,16 +4631,16 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -4649,12 +4649,12 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0,137</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>4,384</t>
         </is>
       </c>
     </row>
@@ -4664,27 +4664,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>120mm</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4694,16 +4694,16 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -4712,12 +4712,12 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>0,137</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>6,576</t>
         </is>
       </c>
     </row>
@@ -4727,27 +4727,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>120mm</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4757,16 +4757,16 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -4775,12 +4775,12 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>0,643</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5,144</t>
         </is>
       </c>
     </row>
@@ -4790,27 +4790,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LIFT CHECK VALVE SW, API 602, A105, CL 800, INST HORIZ/VERT, SW, B16.11, BOLTED COVER, SPW SS304/GRAPH, PISTON TYPE OBTURATOR, TRIM #8</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>135mm</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4820,16 +4820,16 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -4838,12 +4838,12 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>19,68</t>
         </is>
       </c>
     </row>
@@ -4853,27 +4853,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0,875</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>160mm</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4883,16 +4883,16 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -4901,12 +4901,12 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0,656</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>10,496</t>
         </is>
       </c>
     </row>
@@ -4916,27 +4916,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>DBB</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>185mm</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0,681</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>65,376</t>
         </is>
       </c>
     </row>
@@ -4979,17 +4979,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>GLB</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>GLOBE VALVE FL, API 623, A216 GR.WCB, CL 1500, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PARABOLIC DISC, STEM OS&amp;Y/RSRO, HO</t>
+          <t>FIGURE-8 BLANK, CS, ASTM A516 Gr.70 + S5, ASME B16.48, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, CLASS 600, RF</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>600</t>
         </is>
       </c>
       <c r="J73" t="n">
@@ -5027,12 +5027,642 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 600, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>BALL VALVE FL, FB, LP, TRUNNION BALL, API 608, A216 GR.WCB, CL 600, RF, B16.5, A105N + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, SEAT RINGS A105N + ENP, API 607, GO</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>2</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>4</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>2</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>6,1</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>12,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CHS</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 600, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>2</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>DBB</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>8</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>5,5</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>DBB</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 600, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH, SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>4</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>7,8</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>31,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>GATE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>2</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>GATE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>2</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>GLB</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>GLOBE VALVE FL, API 623, A216 GR.WCB, CL 600, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PARABOLIC DISC, STEM OS&amp;Y/RSRO, HO</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>600</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>

--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +516,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -554,12 +554,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>10,88</t>
+          <t>14,96</t>
         </is>
       </c>
     </row>
@@ -579,7 +579,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -617,12 +617,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>28,26</t>
+          <t>42,56</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>226,08</t>
+          <t>893,76</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>366,52</t>
+          <t>33,32</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>10,88</t>
+          <t>87,04</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>112,9</t>
+          <t>22,58</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -869,12 +869,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>16,08</t>
+          <t>28,26</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>32,16</t>
+          <t>169,56</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 160</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -932,12 +932,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>13,2</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 160</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -995,12 +995,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>8,48</t>
+          <t>22,68</t>
         </is>
       </c>
     </row>
@@ -1020,12 +1020,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 160</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A333 Gr.6, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1058,12 +1058,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>14,5</t>
+          <t>8,8</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A333 Gr.6, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>45,36</t>
+          <t>6,48</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A333 Gr.6, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>10,82</t>
+          <t>16,23</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1247,12 +1247,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>0,64</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9,  IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 40</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9,  IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 80</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>153,5</t>
+          <t>138,15</t>
         </is>
       </c>
     </row>
@@ -1335,12 +1335,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1364,7 +1364,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1373,12 +1373,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>16,57</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>99,42</t>
+          <t>6,5</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1436,12 +1436,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>4,06</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1499,12 +1499,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>40,8</t>
         </is>
       </c>
     </row>
@@ -1524,12 +1524,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1539,21 +1539,21 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1562,12 +1562,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>1,2</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1625,12 +1625,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,75</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1688,12 +1688,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>3,84</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,56</t>
         </is>
       </c>
     </row>
@@ -1771,17 +1771,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CAP</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CAP, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1814,12 +1814,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,14</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,22</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6,5</t>
         </is>
       </c>
     </row>
@@ -1965,22 +1965,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 40 x 40</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>40x 40</t>
+          <t>40x40</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1994,7 +1994,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2003,12 +2003,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,6</t>
         </is>
       </c>
     </row>
@@ -2023,27 +2023,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ERE</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 40</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 80 x 80</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20x40</t>
+          <t>80x80</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2066,12 +2066,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11,9</t>
         </is>
       </c>
     </row>
@@ -2086,32 +2086,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>ERE</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 160 L= 100 mm</t>
+          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>40x40</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2129,12 +2129,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0,424</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0,848</t>
+          <t>7,8</t>
         </is>
       </c>
     </row>
@@ -2149,41 +2149,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>REDUCING TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>1,1</t>
         </is>
       </c>
     </row>
@@ -2212,32 +2212,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 40</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20x40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2255,12 +2255,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0,324</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>0,324</t>
         </is>
       </c>
     </row>
@@ -2275,32 +2275,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 40</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A333 Gr.6, ASME B36.10, PE, SCH 160 L= 100 mm</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20x40</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2318,12 +2318,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>3,48</t>
         </is>
       </c>
     </row>
@@ -2338,41 +2338,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A333 Gr.6, ASME B36.10, PE, SCH 160 L= 100 mm</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2381,12 +2381,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,725</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>5,075</t>
         </is>
       </c>
     </row>
@@ -2401,41 +2401,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 40</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20x40</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2444,12 +2444,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>28</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 80 x 80</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2479,26 +2479,26 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80x80</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2507,12 +2507,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>18</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -2527,41 +2527,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SWC</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, PExPE, SCH 80x80</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>80x80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>PExPE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2570,12 +2570,12 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>0,9</t>
         </is>
       </c>
     </row>
@@ -2590,22 +2590,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2624,7 +2624,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2633,12 +2633,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>1,35</t>
         </is>
       </c>
     </row>
@@ -2653,41 +2653,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2696,12 +2696,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>1,8</t>
         </is>
       </c>
     </row>
@@ -2716,12 +2716,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 40</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2731,26 +2731,26 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2759,12 +2759,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>19,3</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>38,6</t>
+          <t>0,27</t>
         </is>
       </c>
     </row>
@@ -2779,12 +2779,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 40</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2794,26 +2794,26 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -2822,12 +2822,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>1,41</t>
         </is>
       </c>
     </row>
@@ -2842,12 +2842,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 40</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2857,26 +2857,26 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -2885,12 +2885,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>0,15</t>
         </is>
       </c>
     </row>
@@ -2905,32 +2905,32 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>SWC</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 40</t>
+          <t>CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, BExPE, SCH 40x80</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20x40</t>
+          <t>40x80</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>BExPE</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2939,7 +2939,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>1,36</t>
         </is>
       </c>
     </row>
@@ -2963,46 +2963,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>SWC</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t xml:space="preserve">CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BExPE, SCH 80x80 </t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80x80</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BExPE</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3011,12 +3011,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>15,4</t>
+          <t>1,36</t>
         </is>
       </c>
     </row>
@@ -3026,42 +3026,42 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>SWC</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 600, RF</t>
+          <t xml:space="preserve">CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BExPE, SCH 80x80 </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80x80</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BExPE</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>2,12</t>
         </is>
       </c>
     </row>
@@ -3089,22 +3089,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 20</t>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3114,21 +3114,21 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3137,12 +3137,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>17,3</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>103,8</t>
+          <t>0,66</t>
         </is>
       </c>
     </row>
@@ -3152,17 +3152,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3182,16 +3182,16 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3200,12 +3200,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>20,4</t>
+          <t>7,6</t>
         </is>
       </c>
     </row>
@@ -3215,22 +3215,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3245,16 +3245,16 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -3263,12 +3263,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>19,3</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>9,94</t>
+          <t>19,3</t>
         </is>
       </c>
     </row>
@@ -3278,22 +3278,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 80</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3303,21 +3303,21 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -3326,12 +3326,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>19,3</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>42,66</t>
+          <t>19,3</t>
         </is>
       </c>
     </row>
@@ -3341,46 +3341,46 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 40</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40x40</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -3389,12 +3389,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>8,92</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>17,84</t>
+          <t>0,79</t>
         </is>
       </c>
     </row>
@@ -3404,17 +3404,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 80</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3424,22 +3424,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80x80</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -3452,12 +3452,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>21,82</t>
+          <t>1,58</t>
         </is>
       </c>
     </row>
@@ -3472,17 +3472,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>BLD</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 80</t>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 1500, RF</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3502,11 +3502,11 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -3515,12 +3515,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>21,52</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>86,08</t>
+          <t>5,4</t>
         </is>
       </c>
     </row>
@@ -3535,17 +3535,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>BLD</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 600, RF, SCH 40</t>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 1500, RF</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3565,11 +3565,11 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -3578,12 +3578,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>4,14</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>49,68</t>
+          <t>17,7</t>
         </is>
       </c>
     </row>
@@ -3598,17 +3598,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 600, RF, SCH 40</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3628,11 +3628,11 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -3641,12 +3641,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>17,09</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>34,18</t>
+          <t>5,4</t>
         </is>
       </c>
     </row>
@@ -3661,17 +3661,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 600, RF, SCH 40</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3691,11 +3691,11 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -3704,12 +3704,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>33,62</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>268,96</t>
+          <t>3,6</t>
         </is>
       </c>
     </row>
@@ -3719,22 +3719,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 1500, RF</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3754,11 +3754,11 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="J53" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -3767,12 +3767,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>0,097</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>0,776</t>
+          <t>25,3</t>
         </is>
       </c>
     </row>
@@ -3782,22 +3782,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 1500, RF</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -3830,12 +3830,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>0,148</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>0,296</t>
+          <t>7,4</t>
         </is>
       </c>
     </row>
@@ -3845,22 +3845,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 1500, RF</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3880,11 +3880,11 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -3893,12 +3893,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>16,5</t>
         </is>
       </c>
     </row>
@@ -3908,22 +3908,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 20</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3933,7 +3933,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3947,7 +3947,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -3956,12 +3956,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>17,3</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>17,3</t>
         </is>
       </c>
     </row>
@@ -3971,22 +3971,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4010,7 +4010,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -4019,12 +4019,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>0,302</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>0,604</t>
+          <t>20,4</t>
         </is>
       </c>
     </row>
@@ -4034,22 +4034,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -4073,7 +4073,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -4082,12 +4082,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>0,434</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2,604</t>
+          <t>14,22</t>
         </is>
       </c>
     </row>
@@ -4097,17 +4097,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4132,11 +4132,11 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -4145,12 +4145,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>0,468</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>1,872</t>
+          <t>87,28</t>
         </is>
       </c>
     </row>
@@ -4160,22 +4160,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 600, RF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 1500, RF, SCH 80</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -4195,11 +4195,11 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -4208,12 +4208,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>0,087</t>
+          <t>11</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>0,174</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -4223,22 +4223,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 600, RF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 1500, RTJ, SCH 160</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4248,21 +4248,21 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>RTJ</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -4271,12 +4271,12 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>0,113</t>
+          <t>20,53</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>1,469</t>
+          <t>41,06</t>
         </is>
       </c>
     </row>
@@ -4286,17 +4286,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 600, RF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 80</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J62" t="n">
@@ -4334,12 +4334,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>0,263</t>
+          <t>12,17</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>0,526</t>
+          <t>24,34</t>
         </is>
       </c>
     </row>
@@ -4349,22 +4349,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 600, RF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 900, RF, SCH 80</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -4384,11 +4384,11 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>900</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -4397,12 +4397,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>0,468</t>
+          <t>13,63</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>3,744</t>
+          <t>27,26</t>
         </is>
       </c>
     </row>
@@ -4412,46 +4412,46 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 900, RF, SCH 80</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>900</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -4460,12 +4460,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>0,129</t>
+          <t>48,57</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>1,032</t>
+          <t>291,42</t>
         </is>
       </c>
     </row>
@@ -4475,27 +4475,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+          <t>RING JOINT GASKET, SOFT IRON BHN MAX, OVAL TYPE, ASME B16.20, CLASS 1500, RTJ</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4505,16 +4505,16 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RTJ</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -4523,12 +4523,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>0,137</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>6,576</t>
+          <t>1,8</t>
         </is>
       </c>
     </row>
@@ -4538,27 +4538,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4568,16 +4568,16 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -4586,12 +4586,12 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>0,656</t>
+          <t>0,035</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>62,976</t>
+          <t>0,175</t>
         </is>
       </c>
     </row>
@@ -4601,27 +4601,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4631,16 +4631,16 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -4649,12 +4649,12 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>0,137</t>
+          <t>0,047</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>0,141</t>
         </is>
       </c>
     </row>
@@ -4664,27 +4664,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>120mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4694,16 +4694,16 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -4712,12 +4712,12 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>0,137</t>
+          <t>0,097</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>6,576</t>
+          <t>0,776</t>
         </is>
       </c>
     </row>
@@ -4727,27 +4727,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>120mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4757,16 +4757,16 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -4775,12 +4775,12 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>0,643</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>5,144</t>
+          <t>0,47</t>
         </is>
       </c>
     </row>
@@ -4790,27 +4790,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>135mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -4820,16 +4820,16 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -4838,12 +4838,12 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,302</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>19,68</t>
+          <t>2,416</t>
         </is>
       </c>
     </row>
@@ -4853,27 +4853,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0,875</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>160mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4883,16 +4883,16 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -4901,12 +4901,12 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>0,656</t>
+          <t>0,434</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>10,496</t>
+          <t>0,434</t>
         </is>
       </c>
     </row>
@@ -4916,27 +4916,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 1500, RF</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>185mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4946,16 +4946,16 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>0,681</t>
+          <t>0,055</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>65,376</t>
+          <t>0,605</t>
         </is>
       </c>
     </row>
@@ -4979,22 +4979,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>FIGURE-8 BLANK, CS, ASTM A516 Gr.70 + S5, ASME B16.48, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, CLASS 600, RF</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 1500, RF</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5014,11 +5014,11 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -5027,12 +5027,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,069</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,138</t>
         </is>
       </c>
     </row>
@@ -5042,22 +5042,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 600, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 1500, RF</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5077,11 +5077,11 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -5090,12 +5090,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,098</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,294</t>
         </is>
       </c>
     </row>
@@ -5105,22 +5105,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, TRUNNION BALL, API 608, A216 GR.WCB, CL 600, RF, B16.5, A105N + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, SEAT RINGS A105N + ENP, API 607, GO</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5140,11 +5140,11 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -5153,12 +5153,12 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,263</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,052</t>
         </is>
       </c>
     </row>
@@ -5168,22 +5168,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 900, RF</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5198,12 +5198,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -5216,12 +5216,12 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>0,216</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0,864</t>
         </is>
       </c>
     </row>
@@ -5231,22 +5231,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 900, RF</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5261,12 +5261,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>900</t>
         </is>
       </c>
       <c r="J77" t="n">
@@ -5279,12 +5279,12 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>0,266</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>12,2</t>
+          <t>0,532</t>
         </is>
       </c>
     </row>
@@ -5294,17 +5294,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 600, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 900, RF</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5329,11 +5329,11 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>900</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -5342,12 +5342,12 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,04</t>
         </is>
       </c>
     </row>
@@ -5357,27 +5357,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>DBB</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>70mm</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5387,16 +5387,16 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J79" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -5405,12 +5405,12 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>2,5</t>
         </is>
       </c>
     </row>
@@ -5420,27 +5420,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>DBB</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 600, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH, SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>75mm</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5450,16 +5450,16 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -5468,12 +5468,12 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>0,129</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>31,2</t>
+          <t>1,032</t>
         </is>
       </c>
     </row>
@@ -5483,27 +5483,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>GATE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5513,16 +5513,16 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -5531,12 +5531,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,76</t>
         </is>
       </c>
     </row>
@@ -5546,27 +5546,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>GATE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90mm</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5576,16 +5576,16 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -5594,12 +5594,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5,328</t>
         </is>
       </c>
     </row>
@@ -5609,60 +5609,1383 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0,625</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>95mm</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>16</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>0,229</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>3,664</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>115mm</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>64</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>0,401</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>25,664</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>120mm</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>8</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>3,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>125mm</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>44</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>18,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0,875</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>140mm</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>8</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>5,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0,875</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>160mm</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>48</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>0,681</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>32,688</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1,125</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>195mm</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>32</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>1,071</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>34,272</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1,125</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>210mm</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>84</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>1,439</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>120,876</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>F8</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>FIGURE-8 BLANK, CS, ASTM A516 Gr.70 + S5, ASME B16.48, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, CLASS 1500, RF</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>2</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>F8</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>FIGURE-8 BLANK, CS, ASTM A516 Gr.70, ASME B16.48, CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
           <t>VL</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>5</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, B16.34, A105, CL 1500, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SEAT RINGS NYLON, API 607, LO</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>6</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>19,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, B16.34, A105, CL 1500, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SEAT RINGS NYLON, API 607, LO</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>3</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>15,2</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>45,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>BAL6</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>BALL VALVE FL, FB, LP, TRUNNION BALL, API 6D, A216 GR.WCB, CL 1500, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, SEAT RINGS SS316, SEAT INSERTS NYLON, API 607, LO</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>CHS</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 900, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>2</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>DBB</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>DBB</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 1500, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS04/GRAPH, PKG GRAPH, SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>3,4</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 900, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>2</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
         <is>
           <t>GLB</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>GLOBE VALVE FL, API 623, A216 GR.WCB, CL 600, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PARABOLIC DISC, STEM OS&amp;Y/RSRO, HO</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>600</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>0</t>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>GLOBE VALVE SW, API 602, API 598, A105, CL 1500, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PLUG DISC, STEM OS&amp;Y/RSRO, HO</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>4</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>16</t>
         </is>
       </c>
     </row>

--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>33,32</t>
+          <t>466,48</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -617,12 +617,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>12,91</t>
+          <t>9,92</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>38,73</t>
+          <t>337,28</t>
         </is>
       </c>
     </row>
@@ -642,12 +642,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -680,12 +680,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>28,26</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>226,08</t>
+          <t>464,76</t>
         </is>
       </c>
     </row>
@@ -695,17 +695,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CAP</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CAP, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -734,21 +734,21 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>28,26</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>7,2</t>
+          <t>1356,48</t>
         </is>
       </c>
     </row>
@@ -758,37 +758,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ERE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20 x 40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -797,21 +797,21 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>224,4</t>
         </is>
       </c>
     </row>
@@ -821,37 +821,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 160 L= 100 mm</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>PExTE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -860,21 +860,21 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1,492</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>5,968</t>
+          <t>22,68</t>
         </is>
       </c>
     </row>
@@ -884,37 +884,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH XXS L= 100 mm</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>XXS</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>PExTE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -923,21 +923,21 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0,255</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>194,76</t>
         </is>
       </c>
     </row>
@@ -952,12 +952,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>CAP</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
+          <t>CAP, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>40 x 30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -995,12 +995,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>7,2</t>
         </is>
       </c>
     </row>
@@ -1015,37 +1015,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30 x 80</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>30 x 80</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J10" t="n">
@@ -1058,12 +1058,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>2,72</t>
         </is>
       </c>
     </row>
@@ -1078,27 +1078,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>ERE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 40</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20 x 40</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1141,32 +1141,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 160 L= 100 mm</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PExTE</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1184,12 +1184,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>65,92</t>
+          <t>4,38</t>
         </is>
       </c>
     </row>
@@ -1204,32 +1204,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 80</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH XXS L= 100 mm</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>40 x 30</t>
+          <t>XXS</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1247,12 +1247,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>0,78</t>
         </is>
       </c>
     </row>
@@ -1262,46 +1262,46 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 20</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH XXS L= 100 mm</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>XXS</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>PExTE</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1310,12 +1310,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>17,3</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>17,3</t>
+          <t>1,56</t>
         </is>
       </c>
     </row>
@@ -1325,46 +1325,46 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
+          <t>REDUCING TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1373,12 +1373,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>35,55</t>
+          <t>21,6</t>
         </is>
       </c>
     </row>
@@ -1388,17 +1388,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1408,26 +1408,26 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40 x 30</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1436,12 +1436,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>207,29</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -1451,46 +1451,46 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40 x 30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1499,12 +1499,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0,051</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0,255</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -1514,27 +1514,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 3000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1544,16 +1544,16 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1562,12 +1562,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0,063</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>1,88</t>
         </is>
       </c>
     </row>
@@ -1577,27 +1577,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 3000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1607,16 +1607,16 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1625,12 +1625,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0,088</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0,176</t>
+          <t>0,27</t>
         </is>
       </c>
     </row>
@@ -1640,27 +1640,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 3000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1670,16 +1670,16 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1688,12 +1688,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>2,82</t>
         </is>
       </c>
     </row>
@@ -1703,27 +1703,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 6000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1733,16 +1733,16 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1751,12 +1751,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0,401</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>64,16</t>
+          <t>0,28</t>
         </is>
       </c>
     </row>
@@ -1766,37 +1766,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>SWC</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B18.2.1/B18.2.2</t>
+          <t>CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, BExPE, SCH 80x80</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>120mm</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80x80</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BExPE</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1814,12 +1814,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>1,06</t>
         </is>
       </c>
     </row>
@@ -1829,46 +1829,46 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>SWC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED</t>
+          <t>CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, PExPE, SCH 80x80</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80x80</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>PExPE</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1877,12 +1877,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>0,6</t>
         </is>
       </c>
     </row>
@@ -1892,22 +1892,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1922,12 +1922,12 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -1940,12 +1940,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>0,53</t>
         </is>
       </c>
     </row>
@@ -1955,22 +1955,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1985,16 +1985,16 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2003,12 +2003,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>1,35</t>
         </is>
       </c>
     </row>
@@ -2018,22 +2018,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2043,21 +2043,21 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2066,12 +2066,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2081,22 +2081,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2106,21 +2106,21 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2129,12 +2129,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>181,28</t>
         </is>
       </c>
     </row>
@@ -2144,60 +2144,2454 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>THD</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 6000</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>THD</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 6000</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>WOL</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>40 x 30</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>7,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>WOL</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>40 x 80</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>BLD</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>6</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>10,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>BLD</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>5</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>4,1</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>20,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>BLD</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>7,7</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>23,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>BLD</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>4</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>11,8</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>47,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>6</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>8,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 20</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>5</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>17,3</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>86,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>22</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>4,97</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>109,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>18</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>7,11</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>127,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>39</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>10,91</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>425,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 80</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>6</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>15,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>6</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>4</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>29</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>19</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>42</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>2,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>5</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>85mm</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>24</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>0,137</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>3,288</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0,625</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>100mm</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>268</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>0,235</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>62,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0,625</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>90mm</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>24</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>0,222</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>5,328</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0,625</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>95mm</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>4</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>0,229</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>0,916</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>115mm</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>327</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>0,401</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>131,127</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>120mm</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>40</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>16,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>YST</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>A126 CL B, STRAINER "Y" TYPE., FF B16.1, BLIND FLANGE A105, UL LISTED, MESH 1/4"</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>3</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>17,24</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>51,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>VL</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>GLB</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CHS</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CHS</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>2</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>2</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>4</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>14</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>2</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>9</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>9,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>4</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>1,67</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>6,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>2</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>3,11</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>6,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>HOSE GATE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREWED BONNET, PKG NON ASBESTOS, SOLID WEDGE, WEDGE B62, SEAT&amp;STEM BRONZE, NON RISING STEM, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>2,5</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
         <is>
           <t>FNPTxMNH</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>300 PSI CWP</t>
         </is>
       </c>
-      <c r="J28" t="n">
+      <c r="J66" t="n">
         <v>4</v>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>7,08</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>28,32</t>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>8,39</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>33,56</t>
         </is>
       </c>
     </row>

--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -521,7 +521,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16,00</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1184,12 +1184,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>80,00</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1814,12 +1814,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50,00</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50,00</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">

--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,12 +516,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 30</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -554,12 +554,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>65,19</t>
+          <t>33,32</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>521,52</t>
+          <t>433,16</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -617,12 +617,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>11,29</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>67,74</t>
+          <t>8,04</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -680,12 +680,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>16,08</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1238,16</t>
+          <t>154,92</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -748,7 +748,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>113,04</t>
+          <t>3589,02</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -806,12 +806,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>19,5</t>
+          <t>15,3</t>
         </is>
       </c>
     </row>
@@ -831,12 +831,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -869,12 +869,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>46,06</t>
+          <t>16,57</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>46,06</t>
+          <t>16,57</t>
         </is>
       </c>
     </row>
@@ -894,12 +894,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -932,12 +932,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>8,12</t>
+          <t>15,6</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -995,12 +995,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>11,7</t>
+          <t>183,6</t>
         </is>
       </c>
     </row>
@@ -1015,41 +1015,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1058,12 +1058,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,48</t>
         </is>
       </c>
     </row>
@@ -1078,37 +1078,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SWxTHD, CLASS 3000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SWxTHD</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J11" t="n">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>0,14</t>
         </is>
       </c>
     </row>
@@ -1141,41 +1141,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SWxTHD, CLASS 3000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SWxTHD</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1184,12 +1184,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>80,00</t>
+          <t>0,36</t>
         </is>
       </c>
     </row>
@@ -1204,41 +1204,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40 x 30</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1247,12 +1247,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>3,9</t>
         </is>
       </c>
     </row>
@@ -1267,37 +1267,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>ERE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 40</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20 x 40</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J14" t="n">
@@ -1310,12 +1310,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>6,5</t>
         </is>
       </c>
     </row>
@@ -1330,37 +1330,37 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 160 L= 100 mm</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1373,12 +1373,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,58</t>
         </is>
       </c>
     </row>
@@ -1393,41 +1393,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 160 L= 100 mm</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>PExTE</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1436,12 +1436,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,29</t>
         </is>
       </c>
     </row>
@@ -1456,41 +1456,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH 160 L= 100 mm</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1499,12 +1499,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,56</t>
         </is>
       </c>
     </row>
@@ -1519,32 +1519,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 40</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH XXS L= 100 mm</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>30x40</t>
+          <t>XXS</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1562,12 +1562,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>0,26</t>
         </is>
       </c>
     </row>
@@ -1577,46 +1577,46 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20 x 30</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1625,12 +1625,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>28,00</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>8,2</t>
+          <t>28,00</t>
         </is>
       </c>
     </row>
@@ -1640,42 +1640,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40 x 30</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J20" t="n">
@@ -1688,12 +1688,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>15,4</t>
+          <t>32,00</t>
         </is>
       </c>
     </row>
@@ -1703,46 +1703,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>SWC</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, PExPE, SCH 80x80</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80x80</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>PExPE</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1751,12 +1751,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>11,8</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>23,6</t>
+          <t>0,45</t>
         </is>
       </c>
     </row>
@@ -1766,22 +1766,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1814,12 +1814,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>50,00</t>
+          <t>29,00</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>50,00</t>
+          <t>29,00</t>
         </is>
       </c>
     </row>
@@ -1829,22 +1829,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 30</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1854,21 +1854,21 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1877,12 +1877,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>37,42</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>112,26</t>
+          <t>82,4</t>
         </is>
       </c>
     </row>
@@ -1892,46 +1892,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>TOL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 6000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1940,12 +1940,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>49,7</t>
+          <t>0,14</t>
         </is>
       </c>
     </row>
@@ -1955,46 +1955,46 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40 x 30</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2003,12 +2003,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>206,19</t>
+          <t>7,24</t>
         </is>
       </c>
     </row>
@@ -2023,12 +2023,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>BLD</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2043,12 +2043,12 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2066,12 +2066,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>11,8</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>21,82</t>
+          <t>23,6</t>
         </is>
       </c>
     </row>
@@ -2081,22 +2081,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 20</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2106,12 +2106,12 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2129,12 +2129,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0,148</t>
+          <t>17,3</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>1,628</t>
+          <t>69,2</t>
         </is>
       </c>
     </row>
@@ -2144,17 +2144,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2169,12 +2169,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>28,44</t>
         </is>
       </c>
     </row>
@@ -2207,17 +2207,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2232,12 +2232,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2255,12 +2255,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0,302</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0,604</t>
+          <t>272,75</t>
         </is>
       </c>
     </row>
@@ -2280,12 +2280,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2318,12 +2318,327 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0,905</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2,715</t>
+          <t>0,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>24</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0,625</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>100mm</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>24</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>0,235</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>5,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>115mm</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>200</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>0,401</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>80,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>120mm</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>24</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>9,84</t>
         </is>
       </c>
     </row>

--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>TOTAL_WEIGHT</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>NOTE</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -516,12 +521,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 20</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -531,7 +536,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -545,7 +550,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -554,12 +559,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>33,32</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>433,16</t>
+          <t>45,16</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -579,12 +589,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -594,7 +604,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -608,7 +618,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -617,12 +627,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>8,04</t>
+          <t>16,08</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>8,04</t>
+          <t>209,04</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -642,12 +657,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -657,7 +672,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -671,7 +686,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -680,12 +695,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>12,91</t>
+          <t>28,26</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>154,92</t>
+          <t>226,08</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -700,17 +720,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -720,12 +740,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -734,7 +754,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -743,12 +763,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>28,26</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3589,02</t>
+          <t>3,24</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -758,22 +783,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -783,12 +808,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -797,21 +822,26 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15,3</t>
+          <t>4,4</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -826,17 +856,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>45L</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
+          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -846,7 +876,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -860,7 +890,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -869,12 +899,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>16,57</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>16,57</t>
+          <t>7,8</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -889,17 +924,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>45L</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
+          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -909,7 +944,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -923,7 +958,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -932,12 +967,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>15,6</t>
+          <t>5,1</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -957,12 +997,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -972,21 +1012,21 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -995,12 +1035,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>183,6</t>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1066,6 +1111,11 @@
           <t>0,48</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1078,17 +1128,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CPL</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>COUPLING, CS, ASTM A105, ASME B16.11, SWxTHD, CLASS 3000</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1098,21 +1148,21 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>SWxTHD</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1121,12 +1171,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>4,06</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1141,17 +1196,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CPL</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>COUPLING, CS, ASTM A105, ASME B16.11, SWxTHD, CLASS 3000</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1161,21 +1216,21 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>SWxTHD</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1184,12 +1239,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>31,2</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1204,12 +1264,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1219,12 +1279,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>40 x 30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1238,7 +1298,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1247,12 +1307,17 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>81,6</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1267,27 +1332,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ERE</t>
+          <t>CAP</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 40</t>
+          <t>CAP, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20 x 40</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1310,12 +1375,17 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1330,41 +1400,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 160 L= 100 mm</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1373,12 +1443,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1393,32 +1468,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 160 L= 100 mm</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>40x40</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>PExTE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1427,7 +1502,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1436,12 +1511,17 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1456,32 +1536,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH 160 L= 100 mm</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>40x40</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1499,12 +1579,17 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1519,32 +1604,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH XXS L= 100 mm</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>XXS</t>
+          <t>40x40</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1562,12 +1647,17 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1582,27 +1672,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>ERE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 30</t>
+          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20 x 30</t>
+          <t>40x40</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1625,12 +1715,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>28,00</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>28,00</t>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1645,12 +1740,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>ERE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
+          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1665,7 +1760,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>40 x 30</t>
+          <t>40x40</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1688,12 +1783,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>32,00</t>
+          <t>7,8</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1708,32 +1808,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SWC</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, PExPE, SCH 80x80</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>80x80</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>PExPE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1742,7 +1842,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1751,12 +1851,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1771,37 +1876,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1814,12 +1919,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>29,00</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29,00</t>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1834,41 +1944,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1877,12 +1987,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>82,4</t>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1897,12 +2012,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TOL</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 6000</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1912,7 +2027,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1922,16 +2037,16 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1940,12 +2055,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1960,41 +2080,41 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 30</t>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>40 x 30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2003,12 +2123,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2018,22 +2143,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2043,21 +2168,21 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2066,12 +2191,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>11,8</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>23,6</t>
+          <t>13,5</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2081,22 +2211,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 20</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2106,21 +2236,21 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2129,12 +2259,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>17,3</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>69,2</t>
+          <t>8,44</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2144,22 +2279,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2169,21 +2304,21 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2192,12 +2327,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>19,3</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>28,44</t>
+          <t>38,6</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2212,17 +2352,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2232,12 +2372,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2246,7 +2386,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2255,12 +2395,17 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>272,75</t>
+          <t>8,1</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2270,22 +2415,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2295,12 +2440,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2309,7 +2454,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2318,12 +2463,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>5,1</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2333,22 +2483,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 80</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2358,21 +2508,21 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2381,12 +2531,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>7,28</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2396,22 +2551,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2421,12 +2576,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2435,7 +2590,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2444,12 +2599,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>29,82</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2459,46 +2619,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2507,12 +2667,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>42,66</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2522,46 +2687,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 80</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2570,12 +2735,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0,401</t>
+          <t>12,17</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>80,2</t>
+          <t>12,17</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2585,60 +2755,1561 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>9</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>10,91</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>98,19</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>8</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0,035</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>0,113</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>0,113</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>7</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>0,148</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1,036</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>7</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>0,235</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1,645</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>0,263</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0,263</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>10</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>0,302</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>3,02</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>BL</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>BOLT</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>70mm</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>32</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>0,125</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0,625</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>100mm</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>84</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>0,235</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>19,74</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0,625</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>95mm</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>8</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>0,229</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1,832</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>120mm</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>24</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>9,84</t>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>115mm</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>80</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>0,401</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>32,08</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>125mm</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>8</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>3,36</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>YST</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>A216 GR.WCB, STRAINER "Y" TYPE; RF B16.5; SCREEN SS304; MESH SIZE 5X5 FOR 3" AND UNDER, 3X3 BETWEEN 3" TO 6", 1/2IN FOR OVER 6"; BLIND FLANGE A105, B16.5 SWG GCI SS304, B16.20; DRAIN A105, 3/4" HEX TYPE PLUG, NPTF END, B16.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>92,00</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>184,00</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>CSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>45,00</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>45,00</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>45,00</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>45,00</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>CSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>77,00</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>77,00</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>77,00</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>154,00</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>CSC</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CHL</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>LIFT CHECK VALVE SW, API 602, A105, CL 800, INST HORIZ/VERT, SW, B16.11, BOLTED COVER, SPW SS304/GRAPH, PISTON TYPE OBTURATOR, TRIM #8</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CHS</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>2</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>48,00</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>96,00</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DBB</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>4</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DBB</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>CSC</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DBB</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>2</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>CSO</t>
         </is>
       </c>
     </row>

--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,12 +521,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -559,12 +559,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>11,29</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>45,16</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -627,12 +627,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>16,08</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>209,04</t>
+          <t>219,47</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>226,08</t>
+          <t>3589,02</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -720,17 +720,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -740,12 +740,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -763,12 +763,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>33,32</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>433,16</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -783,22 +783,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>45L</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -822,21 +822,21 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>15,3</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -876,21 +876,21 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -899,12 +899,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -924,17 +924,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -967,12 +967,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>27,3</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -997,12 +997,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1012,21 +1012,21 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1035,12 +1035,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>193,8</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1080,21 +1080,21 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1103,12 +1103,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>16,57</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>16,57</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1128,17 +1128,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SWxTHD, CLASS 3000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1148,21 +1148,21 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SWxTHD</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1171,12 +1171,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1196,17 +1196,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SWxTHD, CLASS 3000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1216,21 +1216,21 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SWxTHD</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1239,12 +1239,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>31,2</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1264,12 +1264,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1279,12 +1279,12 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40 x 30</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>81,6</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1332,27 +1332,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CAP</t>
+          <t>ERE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CAP, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 40</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20 x 40</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1400,12 +1400,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CPL</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH XXS L= 100 mm</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1415,22 +1415,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>XXS</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J15" t="n">
@@ -1443,12 +1443,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1468,32 +1468,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH 160 L= 100 mm</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1511,12 +1511,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1536,32 +1536,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH 160 L= 100 mm</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1604,12 +1604,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1619,12 +1619,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>40 x 30</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1647,12 +1647,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>32,00</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1672,27 +1672,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ERE</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>20 x 30</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1715,12 +1715,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>28,00</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>28,00</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1740,32 +1740,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ERE</t>
+          <t>SWC</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, PExPE, SCH 80x80</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>80x80</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PExPE</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1783,12 +1783,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1808,32 +1808,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1851,12 +1851,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>82,4</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1876,37 +1876,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1919,12 +1919,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>29,00</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>29,00</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1944,22 +1944,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>TOL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 6000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1969,16 +1969,16 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1987,12 +1987,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2012,12 +2012,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2027,26 +2027,26 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40 x 30</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2055,12 +2055,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2075,22 +2075,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>BLD</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2105,16 +2105,16 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>11,8</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>23,6</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2143,22 +2143,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2168,21 +2168,21 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2191,12 +2191,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>13,5</t>
+          <t>28,44</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2211,22 +2211,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2241,16 +2241,16 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2259,12 +2259,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>8,44</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>8,44</t>
+          <t>272,75</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2279,22 +2279,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 20</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2304,21 +2304,21 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2327,12 +2327,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>19,3</t>
+          <t>17,3</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>38,6</t>
+          <t>69,2</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2347,22 +2347,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>8,1</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2415,22 +2415,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2440,12 +2440,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2454,7 +2454,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2463,12 +2463,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2483,22 +2483,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 80</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2508,21 +2508,21 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2531,12 +2531,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2551,46 +2551,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2599,12 +2599,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>29,82</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2619,46 +2619,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>115mm</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2667,12 +2667,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>0,401</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>42,66</t>
+          <t>80,2</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2687,46 +2687,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 80</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>120mm</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2735,12 +2735,12 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>12,17</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>12,17</t>
+          <t>9,84</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2755,17 +2755,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>CHS</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2780,21 +2780,21 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>125</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2803,12 +2803,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>79,00</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>98,19</t>
+          <t>79,00</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2823,22 +2823,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2871,12 +2871,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2891,22 +2891,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2921,16 +2921,16 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>125</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2939,12 +2939,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0,113</t>
+          <t>68,00</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0,113</t>
+          <t>612,00</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2959,22 +2959,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2989,16 +2989,16 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>125</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3007,12 +3007,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0,148</t>
+          <t>104,00</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>1,036</t>
+          <t>104,00</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3027,22 +3027,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>GLB</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3057,16 +3057,16 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FNPTxMNH</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300 PSI CWP</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3075,1241 +3075,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>1,645</t>
+          <t>28,32</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
           <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>0,263</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>0,263</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J41" t="n">
-        <v>10</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>0,302</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>3,02</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>70mm</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J42" t="n">
-        <v>32</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>0,125</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0,625</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>100mm</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J43" t="n">
-        <v>84</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>0,235</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>19,74</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0,625</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>95mm</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
-        <v>8</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>0,229</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>1,832</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>115mm</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>80</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>0,401</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>32,08</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>125mm</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>8</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>3,36</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>YST</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>A216 GR.WCB, STRAINER "Y" TYPE; RF B16.5; SCREEN SS304; MESH SIZE 5X5 FOR 3" AND UNDER, 3X3 BETWEEN 3" TO 6", 1/2IN FOR OVER 6"; BLIND FLANGE A105, B16.5 SWG GCI SS304, B16.20; DRAIN A105, 3/4" HEX TYPE PLUG, NPTF END, B16.11</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
-        <v>2</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>92,00</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>184,00</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>CSO</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>45,00</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>45,00</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>45,00</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>45,00</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>CSO</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>77,00</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>77,00</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>2</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>77,00</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>154,00</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>CSC</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>CHL</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>LIFT CHECK VALVE SW, API 602, A105, CL 800, INST HORIZ/VERT, SW, B16.11, BOLTED COVER, SPW SS304/GRAPH, PISTON TYPE OBTURATOR, TRIM #8</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>SW</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>CHS</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J54" t="n">
-        <v>2</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>48,00</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>96,00</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>DBB</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>4</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>DBB</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J56" t="n">
-        <v>2</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>CSC</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>DBB</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
-        <v>2</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>CSO</t>
         </is>
       </c>
     </row>

--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,12 +521,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -559,12 +559,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8,04</t>
+          <t>15,27</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>8,04</t>
+          <t>45,81</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -627,12 +627,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>12,91</t>
+          <t>22,32</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>219,47</t>
+          <t>66,96</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -695,12 +695,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>28,26</t>
+          <t>33,32</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3589,02</t>
+          <t>399,84</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 20</t>
+          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -763,12 +763,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>33,32</t>
+          <t>41,76</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>433,16</t>
+          <t>375,84</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -783,22 +783,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -822,21 +822,21 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>51,01</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15,3</t>
+          <t>306,06</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -851,22 +851,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -876,35 +876,35 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>65,19</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>782,28</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -919,22 +919,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -944,12 +944,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -958,21 +958,21 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>27,3</t>
+          <t>13,2</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -987,22 +987,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1012,12 +1012,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1026,21 +1026,21 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>193,8</t>
+          <t>64,8</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1060,17 +1060,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>45L</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
+          <t>ELBOW 45 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1080,21 +1080,21 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1103,12 +1103,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>16,57</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>16,57</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>COUPLING, CS, ASTM A105, ASME B16.11, SWxTHD, CLASS 3000</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>SWxTHD</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1201,12 +1201,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>COUPLING, CS, ASTM A105, ASME B16.11, SWxTHD, CLASS 3000</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>SWxTHD</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1239,12 +1239,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1269,22 +1269,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20 x 20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>40 x 30</t>
+          <t>20x20</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>15,00</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1332,27 +1332,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ERE</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 40</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30 x 30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20 x 40</t>
+          <t>30x30</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1375,12 +1375,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>13,2</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>26,4</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1405,12 +1405,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH XXS L= 100 mm</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1420,12 +1420,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>XXS</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1434,7 +1434,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1443,12 +1443,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1473,12 +1473,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH 160 L= 100 mm</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1488,12 +1488,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1511,12 +1511,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,324</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1536,37 +1536,37 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH 160 L= 100 mm</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1604,37 +1604,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>40 x 30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J18" t="n">
@@ -1647,12 +1647,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>32,00</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 30</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1687,26 +1687,26 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20 x 30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1715,12 +1715,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>28,00</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>28,00</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1740,41 +1740,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SWC</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, PExPE, SCH 80x80</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>80x80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>PExPE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1783,12 +1783,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1808,41 +1808,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1851,12 +1851,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>82,4</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1876,37 +1876,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -1919,12 +1919,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>29,00</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>29,00</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1944,17 +1944,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TOL</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 6000</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1969,16 +1969,16 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1992,7 +1992,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2012,41 +2012,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 30</t>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>40 x 30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2055,12 +2055,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2075,22 +2075,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2100,21 +2100,21 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>11,8</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>23,6</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2143,46 +2143,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 80</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20x80</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2191,12 +2191,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>28,44</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2211,46 +2211,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 80</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20x80</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2259,12 +2259,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>272,75</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2284,17 +2284,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 20</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2304,17 +2304,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -2327,12 +2327,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>17,3</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>69,2</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2347,22 +2347,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2415,22 +2415,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 80</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2440,21 +2440,21 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2463,12 +2463,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>7,46</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>7,46</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2483,22 +2483,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 80</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2508,21 +2508,21 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2531,12 +2531,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>12,17</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>12,17</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2551,46 +2551,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2599,12 +2599,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>29,59</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>59,18</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2619,46 +2619,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2667,12 +2667,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0,401</t>
+          <t>42,35</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>80,2</t>
+          <t>169,4</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2687,46 +2687,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 30</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>120mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2735,12 +2735,12 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>23,57</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>47,14</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2755,22 +2755,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2780,21 +2780,21 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2803,12 +2803,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>79,00</t>
+          <t>60,59</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>79,00</t>
+          <t>121,18</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2823,22 +2823,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2853,16 +2853,16 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2871,12 +2871,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,049</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,098</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2891,22 +2891,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2921,16 +2921,16 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2939,12 +2939,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>68,00</t>
+          <t>0,047</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>612,00</t>
+          <t>0,094</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2959,22 +2959,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2989,12 +2989,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -3007,12 +3007,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>104,00</t>
+          <t>0,192</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>104,00</t>
+          <t>0,192</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3027,63 +3027,1015 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>0,263</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0,263</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>2</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>2</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>0,598</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>1,196</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>4</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>0,789</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>3,156</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>1,034</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>2,068</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>75mm</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>16</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>0,129</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2,064</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0,625</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>85mm</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>8</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>0,216</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>1,728</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>120mm</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>8</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>3,28</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>125mm</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>8</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>3,36</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0,875</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>125mm</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>32</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>0,592</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>18,944</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0,875</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>150mm</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>24</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>0,656</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>15,744</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>170mm</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>64</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>0,957</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>61,248</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1,125</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>185mm</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>32</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>1,331</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>42,592</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>VL</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>GLB</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>FNPTxMNH</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>300 PSI CWP</t>
-        </is>
-      </c>
-      <c r="J39" t="n">
-        <v>4</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>7,08</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>28,32</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>5</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>17,5</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,12 +521,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 80</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -559,12 +559,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>15,27</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>45,81</t>
+          <t>299,2</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 80</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -627,12 +627,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>22,32</t>
+          <t>7,48</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>66,96</t>
+          <t>261,8</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 20</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -695,12 +695,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>33,32</t>
+          <t>8,04</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>399,84</t>
+          <t>16,08</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 20</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -763,12 +763,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>41,76</t>
+          <t>9,92</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>375,84</t>
+          <t>416,64</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 30</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -831,12 +831,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>51,01</t>
+          <t>12,91</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>306,06</t>
+          <t>1032,8</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -861,12 +861,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 30</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
+        <v>375</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -899,12 +899,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>65,19</t>
+          <t>28,26</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>782,28</t>
+          <t>10597,5</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -924,17 +924,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -944,12 +944,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -967,12 +967,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>33,32</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13,2</t>
+          <t>1266,16</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -992,17 +992,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1012,12 +1012,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1035,12 +1035,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>41,76</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>64,8</t>
+          <t>1127,52</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1055,22 +1055,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1080,35 +1080,35 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>231</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>49,71</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>11483,01</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1123,22 +1123,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CPL</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1148,35 +1148,35 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>STD</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>81,33</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>81,33</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1191,22 +1191,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CPL</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1216,35 +1216,35 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>STD</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>93,27</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>1399,05</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1259,37 +1259,37 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20 x 20</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 160</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20x20</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1298,21 +1298,21 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>15,00</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1327,37 +1327,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30 x 30</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>30x30</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1366,21 +1366,21 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>13,2</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>26,4</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1395,27 +1395,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1434,21 +1434,21 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>32,4</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1463,27 +1463,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1502,21 +1502,21 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0,324</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>6,48</t>
+          <t>32,46</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1536,41 +1536,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>45L</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1579,12 +1579,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1604,41 +1604,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>45L</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1647,12 +1647,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1672,41 +1672,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>45L</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1715,12 +1715,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>26,03</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>52,06</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1740,22 +1740,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 6000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1770,11 +1770,11 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>6000</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1783,12 +1783,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1808,22 +1808,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1851,12 +1851,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1876,22 +1876,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1919,12 +1919,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1944,22 +1944,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1987,12 +1987,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2012,17 +2012,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2032,21 +2032,21 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2055,12 +2055,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>22,1</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2080,12 +2080,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 80</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>26,65</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2148,27 +2148,27 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 80</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20x80</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2191,12 +2191,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>18,27</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2216,27 +2216,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 80</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20x80</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2259,12 +2259,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>54,6</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2279,22 +2279,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2304,21 +2304,21 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2327,12 +2327,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>856,8</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2347,22 +2347,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2372,17 +2372,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>16,57</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>66,28</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2415,22 +2415,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 80</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2440,21 +2440,21 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2463,12 +2463,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>7,46</t>
+          <t>31,3</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>7,46</t>
+          <t>187,8</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2483,22 +2483,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 80</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2508,21 +2508,21 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2531,12 +2531,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>12,17</t>
+          <t>46,06</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>12,17</t>
+          <t>1473,92</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2551,22 +2551,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH STD</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -2599,12 +2599,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>29,59</t>
+          <t>68,00</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>59,18</t>
+          <t>136,00</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2619,22 +2619,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH STD</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2649,16 +2649,16 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2667,12 +2667,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>42,35</t>
+          <t>89,2</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>169,4</t>
+          <t>267,6</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2687,46 +2687,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 30</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30 x 30</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>30x30</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2735,12 +2735,12 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>23,57</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>47,14</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2755,46 +2755,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40x30</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2803,12 +2803,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>60,59</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>121,18</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2823,46 +2823,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40x30</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2871,12 +2871,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0,049</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0,098</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2891,46 +2891,46 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 20</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20x20</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2939,12 +2939,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0,047</t>
+          <t>10,16</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0,094</t>
+          <t>10,16</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2959,46 +2959,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 20</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20x20</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3007,12 +3007,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0,192</t>
+          <t>10,16</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0,192</t>
+          <t>20,32</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3027,42 +3027,42 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH STD x 20</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>STDx20</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0,263</t>
+          <t>26,8</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0,263</t>
+          <t>26,8</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3095,42 +3095,42 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH STD x 20</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>STDx20</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -3143,12 +3143,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>43,8</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>87,6</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3163,46 +3163,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH XXS L= 100 mm</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>XXS</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3211,12 +3211,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0,598</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1,196</t>
+          <t>18,72</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3231,46 +3231,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 160 L= 100 mm</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3279,12 +3279,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>0,789</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>3,156</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3299,46 +3299,46 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH 160 L= 100 mm</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3347,12 +3347,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>1,034</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2,068</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3367,37 +3367,37 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 160 L= 100 mm</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>75mm</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3406,7 +3406,7 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3415,12 +3415,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0,129</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2,064</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3435,37 +3435,37 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 160 L= 100 mm</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>85mm</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>PExTE</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -3474,7 +3474,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -3483,12 +3483,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>0,216</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>1,728</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3503,37 +3503,37 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 160 L= 100 mm</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>120mm</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>PExTE</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -3551,12 +3551,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3571,37 +3571,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH 160 L= 100 mm</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>125mm</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -3619,12 +3619,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>3,36</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3639,37 +3639,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BExTE, SCH 160 L= 100 mm</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0,875</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>125mm</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>160</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BExTE</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -3687,12 +3687,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0,592</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>18,944</t>
+          <t>77,7</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3707,37 +3707,37 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30 x 80</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0,875</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>150mm</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>30x80</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -3755,12 +3755,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>0,656</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>15,744</t>
+          <t>105,00</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3775,37 +3775,37 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>170mm</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40x30</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3814,7 +3814,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>0,957</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>61,248</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3843,37 +3843,37 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1,125</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>185mm</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40x30</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -3891,12 +3891,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>1,331</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>42,592</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3911,46 +3911,46 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 40</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20x40</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -3959,12 +3959,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>41,00</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>164,00</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3979,63 +3979,5435 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>RTE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 20</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>20x20</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>43,00</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>43,00</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>RTE</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 20</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>20x20</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>2</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>41,00</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>82,00</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>RTE</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH STD x 20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>16,00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>STDx20</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>43,8</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>43,8</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>RTE</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH STD x 20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>16,00</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>STDx20</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>3</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>43,8</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>131,4</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>RTE</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH STD x STD</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>16,00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>STDxSTD</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>43,8</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>43,8</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>SWC</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, PExPE, SCH 80x80</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>80x80</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>PExPE</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>7</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>TEE</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>6</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>3,18</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>TEE</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>3,82</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>3,82</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>TEE</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>TEE</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>2</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>16,48</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>32,96</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>TEE</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>10</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>59,00</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>590,00</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>TEE</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>16,00</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>STD</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>2</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>115,00</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>230,00</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>TOL</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 6000</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>TOL</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>6</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>TOL</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 6000</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>34</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>4,76</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>TOL</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>TOL</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 6000</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>3</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>TOL</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>TOL</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>TOL</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 6000</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>16,00</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>2</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>TOL</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>16,00</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>UNN</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>UNION, CS, ASTM A105, MSS SP-83, THD, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>THD</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>3</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>UNN</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>UNION, CS, ASTM A105, MSS SP-83, THD, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>THD</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>2</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2,52</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>WOL</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 80</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>40x80</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>23</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>18,17</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>WOL</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 80</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>20x80</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J78" t="n">
+        <v>2</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>WOL</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 80</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>20x80</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>WOL</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 80</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>20x80</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J80" t="n">
+        <v>7</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>5,53</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>WOL</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 30</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>20x30</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J81" t="n">
+        <v>8</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>9,04</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>WOL</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 30</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>20x30</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>1,81</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>WOL</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 80</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>16,00</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>STDx80</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>BLD</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J84" t="n">
+        <v>5</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>11,8</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>59,00</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>BLD</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J85" t="n">
+        <v>7</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>32,00</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>224,00</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>BLD</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J86" t="n">
+        <v>6</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>300,00</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>BLD</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>16,00</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J87" t="n">
+        <v>2</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>82,00</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>164,00</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 80</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J88" t="n">
+        <v>4</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>10,2</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J89" t="n">
+        <v>17</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>4,97</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>84,49</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J90" t="n">
+        <v>41</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>7,11</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>291,51</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J91" t="n">
+        <v>110</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>10,91</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>1200,1</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 20</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J92" t="n">
+        <v>14</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>17,3</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>242,2</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 20</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J93" t="n">
+        <v>24</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>23,57</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>565,68</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 20</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J94" t="n">
+        <v>31</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>37,42</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>1160,02</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH STD</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>14,00</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J95" t="n">
+        <v>3</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>50,49</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>151,47</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH STD</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>16,00</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J96" t="n">
+        <v>2</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>61,68</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>123,36</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J97" t="n">
+        <v>5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J98" t="n">
+        <v>27</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J99" t="n">
+        <v>51</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J100" t="n">
+        <v>122</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>7,32</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J101" t="n">
+        <v>16</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J102" t="n">
+        <v>29</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>3,48</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J103" t="n">
+        <v>36</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>6,84</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>14,00</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J104" t="n">
+        <v>2</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>16,00</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J105" t="n">
+        <v>2</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0,625</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>100mm</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J106" t="n">
+        <v>460</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>0,235</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>108,1</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0,625</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>90mm</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J107" t="n">
+        <v>24</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>0,222</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>5,328</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>115mm</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J108" t="n">
+        <v>1040</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>0,401</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>417,04</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>120mm</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J109" t="n">
+        <v>128</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>52,48</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0,875</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>125mm</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J110" t="n">
+        <v>336</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>0,592</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>198,912</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0,875</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>135mm</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>444</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>0,617</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>273,948</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>145mm</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>24</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>0,873</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>20,952</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>150mm</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J113" t="n">
+        <v>32</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>28,48</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>YST</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>A126 CL B, STRAINER "Y" TYPE., FF B16.1, BLIND FLANGE A105, UL LISTED, MESH 1/4"</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J114" t="n">
+        <v>4</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>17,24</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>68,96</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>YST</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>A126 CL B, STRAINER "Y" TYPE., FF B16.1, BLIND FLANGE A105, UL LISTED, MESH 1/4"</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J115" t="n">
+        <v>4</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>32,21</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>128,84</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>YST</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>A126 CL B, STRAINER "Y" TYPE., FF B16.1, BLIND FLANGE A105, UL LISTED, MESH 1/4"</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J116" t="n">
+        <v>4</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>62,6</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>250,4</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>YST</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>A126 CL B, STRAINER "Y" TYPE., FF B16.1, BLIND FLANGE A105, UL LISTED, MESH 1/4"</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>253,1</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>253,1</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
           <t>VL</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>CHS</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>19,00</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>19,00</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>CHS</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J119" t="n">
+        <v>3</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>310,00</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>930,00</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J120" t="n">
+        <v>36</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>37,44</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
         <is>
           <t>1,00</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="J53" t="n">
-        <v>5</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>3,5</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>17,5</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J121" t="n">
+        <v>7</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>1,67</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>11,69</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>19,00</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>19,00</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J123" t="n">
+        <v>7</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>29,00</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>203,00</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J124" t="n">
+        <v>7</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>44,00</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>308,00</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>6,00</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J125" t="n">
+        <v>22</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>68,00</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>1496,00</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J126" t="n">
+        <v>6</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>104,00</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>624,00</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J127" t="n">
+        <v>8</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>158,00</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>1264,00</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>FF</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="J128" t="n">
+        <v>10</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>216,00</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>2160,00</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>GLB</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GLOBE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, SWIVEL PLUG DISC, STEM IS/RSRO, HO, UL LISTED</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J129" t="n">
+        <v>4</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>4,24</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>GLB</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>GLOBE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, SWIVEL PLUG DISC, STEM IS/RSRO, HO, UL LISTED</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J130" t="n">
+        <v>8</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>3,44</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>27,52</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>GLB</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GLOBE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, SWIVEL PLUG DISC, STEM IS/RSRO, HO, UL LISTED</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>TE</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J131" t="n">
+        <v>47</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>5,7</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>267,9</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>GLB</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>FNPTxMNH</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>300 PSI CWP</t>
+        </is>
+      </c>
+      <c r="J132" t="n">
+        <v>8</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>7,08</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>56,64</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N132"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>299,2</t>
+          <t>136,00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 80</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -627,12 +627,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>261,8</t>
+          <t>858,04</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -695,12 +695,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>8,04</t>
+          <t>16,08</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>16,08</t>
+          <t>2363,76</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -763,12 +763,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>9,92</t>
+          <t>28,26</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>416,64</t>
+          <t>452,16</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 30</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -831,12 +831,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>12,91</t>
+          <t>33,32</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1032,8</t>
+          <t>766,36</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -861,12 +861,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>375</v>
+        <v>143</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -899,12 +899,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>28,26</t>
+          <t>51,01</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>10597,5</t>
+          <t>7294,43</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -929,12 +929,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 20</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -967,12 +967,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>33,32</t>
+          <t>81,33</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1266,16</t>
+          <t>1870,59</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -997,12 +997,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 20</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1035,12 +1035,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>41,76</t>
+          <t>123,31</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1127,52</t>
+          <t>863,17</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1060,17 +1060,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 20</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1080,12 +1080,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1103,12 +1103,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>49,71</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>11483,01</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1128,17 +1128,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 20</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1148,12 +1148,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1171,12 +1171,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>81,33</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>81,33</t>
+          <t>13,2</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1196,17 +1196,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BE, SCH 20</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1230,7 +1230,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1239,12 +1239,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>93,27</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1399,05</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1269,12 +1269,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 160</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1327,22 +1327,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>45L</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1366,21 +1366,21 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1395,22 +1395,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>45L</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1420,12 +1420,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1434,21 +1434,21 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>32,4</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1463,22 +1463,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>45L</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1488,12 +1488,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1502,21 +1502,21 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>32,46</t>
+          <t>36,00</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1579,12 +1579,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>19,65</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>216,15</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1609,12 +1609,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1647,12 +1647,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>34,00</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>34,00</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1672,17 +1672,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1715,12 +1715,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>26,03</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>52,06</t>
+          <t>15,6</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1745,12 +1745,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 6000</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1760,21 +1760,21 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1783,12 +1783,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>56,84</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1813,12 +1813,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1828,21 +1828,21 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1851,12 +1851,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>81,9</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1896,21 +1896,21 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1919,12 +1919,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>153,00</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1949,12 +1949,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1964,21 +1964,21 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1987,12 +1987,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>16,57</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>198,84</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2055,12 +2055,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>31,3</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>22,1</t>
+          <t>626,00</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2085,12 +2085,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 80</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>68,00</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>26,65</t>
+          <t>136,00</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2148,17 +2148,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>CAP</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
+          <t>CAP, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2191,12 +2191,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>18,27</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2216,17 +2216,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2236,21 +2236,21 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2259,12 +2259,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>54,6</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2284,55 +2284,55 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>40x40</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>6</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
           <t>6,00</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>BW</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J28" t="n">
-        <v>84</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>10,2</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>856,8</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2352,27 +2352,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40x40</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>16,57</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>66,28</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2420,27 +2420,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40x40</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2454,7 +2454,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2463,12 +2463,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>31,3</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>187,8</t>
+          <t>30,4</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2488,27 +2488,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30 x 20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30x20</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2531,12 +2531,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>46,06</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1473,92</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2556,27 +2556,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>ERE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH STD</t>
+          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30 x 20</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30x20</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2599,12 +2599,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>68,00</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>136,00</t>
+          <t>27,00</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2624,32 +2624,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH STD</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2658,7 +2658,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2667,12 +2667,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>89,2</t>
+          <t>0,162</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>267,6</t>
+          <t>0,162</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2692,32 +2692,32 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30 x 30</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>30x30</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2735,12 +2735,12 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2760,27 +2760,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>40x30</t>
+          <t>40x40</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2794,7 +2794,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2803,12 +2803,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>19,96</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2828,27 +2828,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30 x 40</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>40x30</t>
+          <t>30x40</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2871,12 +2871,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>10,7</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>74,9</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2896,27 +2896,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 20</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30 x 20</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20x20</t>
+          <t>30x20</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2930,7 +2930,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2939,12 +2939,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>10,16</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>10,16</t>
+          <t>81,00</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2964,27 +2964,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 20</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>20x20</t>
+          <t>40x30</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3007,12 +3007,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>10,16</t>
+          <t>43,8</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>20,32</t>
+          <t>175,2</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3032,27 +3032,27 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH STD x 20</t>
+          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>STDx20</t>
+          <t>40x30</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>26,8</t>
+          <t>43,8</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>26,8</t>
+          <t>43,8</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3100,37 +3100,37 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH STD x 20</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>STDx20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -3143,12 +3143,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>43,8</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>87,6</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3168,41 +3168,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH XXS L= 100 mm</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>XXS</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3211,12 +3211,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>18,72</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3236,37 +3236,37 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 160 L= 100 mm</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>100mm</t>
-        </is>
-      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3304,37 +3304,37 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH 160 L= 100 mm</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>100mm</t>
-        </is>
-      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -3347,12 +3347,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3372,41 +3372,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 160 L= 100 mm</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3415,12 +3415,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3440,37 +3440,37 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 160 L= 100 mm</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>PExTE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -3483,12 +3483,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3508,41 +3508,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, PE, SCH 160 L= 100 mm</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>PExTE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -3551,12 +3551,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3576,32 +3576,32 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, TE, SCH 160 L= 100 mm</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -3619,12 +3619,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>36,00</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3644,32 +3644,32 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A53 Gr.B, ASME B36.10, BExTE, SCH 160 L= 100 mm</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>BExTE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -3687,12 +3687,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>77,7</t>
+          <t>33,76</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3712,27 +3712,27 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30 x 80</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>30x80</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -3755,12 +3755,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>36,77</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>105,00</t>
+          <t>147,08</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3780,27 +3780,27 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 40</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>40x30</t>
+          <t>20x40</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3814,7 +3814,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -3823,12 +3823,12 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3848,27 +3848,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 40</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>40x30</t>
+          <t>30x40</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -3891,12 +3891,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3916,12 +3916,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 40</t>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 40</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3931,12 +3931,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20x40</t>
+          <t>30x40</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -3959,12 +3959,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>41,00</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>164,00</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3979,42 +3979,42 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>BLD</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 20</t>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>20x20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -4027,12 +4027,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>43,00</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>43,00</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4047,46 +4047,46 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>BLD</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20 x 20</t>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>20x20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4095,12 +4095,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>41,00</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>82,00</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4115,46 +4115,46 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>BLD</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH STD x 20</t>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>STDx20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4163,12 +4163,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>43,8</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>43,8</t>
+          <t>23,1</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4183,46 +4183,46 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>BLD</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH STD x 20</t>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>STDx20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -4231,12 +4231,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>43,8</t>
+          <t>32,00</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>131,4</t>
+          <t>224,00</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -4251,17 +4251,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>BLD</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH STD x STD</t>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4271,26 +4271,26 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>STDxSTD</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -4299,12 +4299,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>43,8</t>
+          <t>82,00</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>43,8</t>
+          <t>164,00</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -4319,27 +4319,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 3000</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4349,12 +4349,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J58" t="n">
@@ -4367,12 +4367,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -4387,46 +4387,46 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SWC</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, PExPE, SCH 80x80</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>80x80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>PExPE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -4435,12 +4435,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>68,85</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -4455,22 +4455,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4480,21 +4480,21 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -4503,12 +4503,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>188,86</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -4523,22 +4523,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4548,21 +4548,21 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -4571,12 +4571,12 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>575,91</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -4591,22 +4591,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4616,21 +4616,21 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -4639,12 +4639,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>152,74</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -4659,22 +4659,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 20</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4684,21 +4684,21 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -4707,12 +4707,12 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>17,3</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>32,96</t>
+          <t>449,8</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -4727,22 +4727,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 30</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4752,21 +4752,21 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -4775,12 +4775,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>59,00</t>
+          <t>23,57</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>590,00</t>
+          <t>1084,22</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -4795,22 +4795,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 30</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -4820,17 +4820,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J65" t="n">
@@ -4843,12 +4843,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>115,00</t>
+          <t>50,49</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>230,00</t>
+          <t>100,98</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -4863,46 +4863,46 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>TOL</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 6000</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -4911,12 +4911,12 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>65,43</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>130,86</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -4931,27 +4931,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>TOL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 3000</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4961,16 +4961,16 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J67" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -4979,12 +4979,12 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,066</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>0,066</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -4999,27 +4999,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>TOL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 6000</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -5029,16 +5029,16 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J68" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -5047,12 +5047,12 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,097</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>2,425</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -5067,27 +5067,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>TOL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 3000</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5097,16 +5097,16 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -5115,12 +5115,12 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,148</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>9,324</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -5135,27 +5135,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>TOL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 6000</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -5165,16 +5165,16 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -5183,12 +5183,12 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>6,815</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -5203,27 +5203,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>TOL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 3000</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5233,16 +5233,16 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -5251,12 +5251,12 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,302</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>5,436</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -5271,27 +5271,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>TOL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 3000</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -5301,16 +5301,16 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -5319,12 +5319,12 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,434</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>6,076</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -5339,27 +5339,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>TOL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 6000</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -5369,16 +5369,16 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>6000</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -5387,12 +5387,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,598</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>22,724</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -5407,27 +5407,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>TOL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>THREADOLET, CS, ASTM A105, MSS SP-97, TE, CLASS 3000</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5437,16 +5437,16 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -5455,12 +5455,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>1,102</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>2,204</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -5475,22 +5475,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>UNN</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>UNION, CS, ASTM A105, MSS SP-83, THD, CLASS 3000</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5505,16 +5505,16 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>THD</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -5523,12 +5523,12 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>1,432</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>2,864</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -5543,22 +5543,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>UNN</t>
+          <t>YST</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>UNION, CS, ASTM A105, MSS SP-83, THD, CLASS 3000</t>
+          <t>A216 GR.WCB, STRAINER "Y" TYPE; RF B16.5; SCREEN SS304; MESH SIZE 5X5 FOR 3" AND UNDER, 3X3 BETWEEN 3" TO 6", 1/2IN FOR OVER 6"; BLIND FLANGE A105, B16.5 SWG GCI SS304, B16.20; DRAIN A105, 3/4" HEX TYPE PLUG, NPTF END, B16.11</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5573,12 +5573,12 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>THD</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J76" t="n">
@@ -5591,12 +5591,12 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>30,00</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>60,00</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -5611,46 +5611,46 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>YST</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 80</t>
+          <t>A216 GR.WCB, STRAINER "Y" TYPE; RF B16.5; SCREEN SS304; MESH SIZE 5X5 FOR 3" AND UNDER, 3X3 BETWEEN 3" TO 6", 1/2IN FOR OVER 6"; BLIND FLANGE A105, B16.5 SWG GCI SS304, B16.20; DRAIN A105, 3/4" HEX TYPE PLUG, NPTF END, B16.11</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>40x80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J77" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -5659,12 +5659,12 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>50,00</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>18,17</t>
+          <t>200,00</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -5679,46 +5679,46 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>YST</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 80</t>
+          <t>A216 GR.WCB, STRAINER "Y" TYPE; RF B16.5; SCREEN SS304; MESH SIZE 5X5 FOR 3" AND UNDER, 3X3 BETWEEN 3" TO 6", 1/2IN FOR OVER 6"; BLIND FLANGE A105, B16.5 SWG GCI SS304, B16.20; DRAIN A105, 3/4" HEX TYPE PLUG, NPTF END, B16.11</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>20x80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -5727,12 +5727,12 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>92,00</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>368,00</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -5747,42 +5747,42 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 80</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>20x80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>800</t>
         </is>
       </c>
       <c r="J79" t="n">
@@ -5795,12 +5795,12 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -5815,46 +5815,46 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 80</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>20x80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>800</t>
         </is>
       </c>
       <c r="J80" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -5863,12 +5863,12 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -5883,46 +5883,46 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 30</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>20x30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>800</t>
         </is>
       </c>
       <c r="J81" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -5931,12 +5931,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>9,04</t>
+          <t>10,5</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -5951,46 +5951,46 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 30</t>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>20x30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -5999,12 +5999,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>15,00</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>45,00</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -6019,46 +6019,46 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 80</t>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>STDx80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -6067,12 +6067,12 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>25,00</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>475,00</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -6087,22 +6087,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF</t>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -6135,12 +6135,12 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>11,8</t>
+          <t>45,00</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>59,00</t>
+          <t>225,00</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6155,22 +6155,22 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF</t>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6185,7 +6185,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6203,12 +6203,12 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>32,00</t>
+          <t>77,00</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>224,00</t>
+          <t>539,00</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -6223,22 +6223,22 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>CHS</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF</t>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -6262,7 +6262,7 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -6271,12 +6271,12 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>50,00</t>
+          <t>19,00</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>300,00</t>
+          <t>19,00</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -6291,22 +6291,22 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>CHS</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF</t>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6321,7 +6321,7 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -6330,7 +6330,7 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -6339,12 +6339,12 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>82,00</t>
+          <t>266,00</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>164,00</t>
+          <t>798,00</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -6359,17 +6359,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 80</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6384,12 +6384,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -6398,7 +6398,7 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -6407,12 +6407,12 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>18,00</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>18,00</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -6427,22 +6427,22 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -6452,12 +6452,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -6475,12 +6475,12 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>144,00</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>84,49</t>
+          <t>1152,00</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -6495,22 +6495,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6520,12 +6520,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6534,7 +6534,7 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -6543,12 +6543,12 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>197,00</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>291,51</t>
+          <t>2167,00</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -6563,22 +6563,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 40</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -6588,12 +6588,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6602,7 +6602,7 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -6611,12 +6611,12 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>406,00</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>1200,1</t>
+          <t>406,00</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -6631,22 +6631,22 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GLB</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 20</t>
+          <t>GLOBE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PLUG DISC, STEM OS&amp;Y/RSRO, HO</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -6656,21 +6656,21 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>800</t>
         </is>
       </c>
       <c r="J92" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -6679,12 +6679,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>17,3</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>242,2</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -6699,22 +6699,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GLB</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 20</t>
+          <t>GLOBE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PLUG DISC, STEM OS&amp;Y/RSRO, HO</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -6724,21 +6724,21 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>800</t>
         </is>
       </c>
       <c r="J93" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -6747,2667 +6747,15 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>23,57</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>565,68</t>
+          <t>18,00</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>93</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>WNK</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 20</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>12,00</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J94" t="n">
-        <v>31</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>37,42</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>1160,02</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>94</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>WNK</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH STD</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>14,00</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J95" t="n">
-        <v>3</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>50,49</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>151,47</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>95</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>WNK</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH STD</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>16,00</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J96" t="n">
-        <v>2</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>61,68</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>123,36</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>96</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J97" t="n">
-        <v>5</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>97</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J98" t="n">
-        <v>27</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>98</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J99" t="n">
-        <v>51</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>2,55</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>99</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J100" t="n">
-        <v>122</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>0,06</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>7,32</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>100</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J101" t="n">
-        <v>16</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>101</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>10,00</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J102" t="n">
-        <v>29</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>3,48</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>102</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>12,00</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J103" t="n">
-        <v>36</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>6,84</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>103</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>14,00</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J104" t="n">
-        <v>2</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>104</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>16,00</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J105" t="n">
-        <v>2</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>0,6</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>105</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>0,625</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>100mm</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J106" t="n">
-        <v>460</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>0,235</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>108,1</t>
-        </is>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>106</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>0,625</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>90mm</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J107" t="n">
-        <v>24</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>0,222</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>5,328</t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>107</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>115mm</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J108" t="n">
-        <v>1040</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>0,401</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>417,04</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>108</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>120mm</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J109" t="n">
-        <v>128</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>52,48</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>109</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>0,875</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>125mm</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J110" t="n">
-        <v>336</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>0,592</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>198,912</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>110</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>0,875</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>135mm</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J111" t="n">
-        <v>444</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>0,617</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>273,948</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>111</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>145mm</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J112" t="n">
-        <v>24</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>0,873</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>20,952</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>112</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>150mm</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J113" t="n">
-        <v>32</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>28,48</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>113</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>YST</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>A126 CL B, STRAINER "Y" TYPE., FF B16.1, BLIND FLANGE A105, UL LISTED, MESH 1/4"</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J114" t="n">
-        <v>4</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>17,24</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>68,96</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>114</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>YST</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>A126 CL B, STRAINER "Y" TYPE., FF B16.1, BLIND FLANGE A105, UL LISTED, MESH 1/4"</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J115" t="n">
-        <v>4</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>32,21</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>128,84</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>115</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>YST</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>A126 CL B, STRAINER "Y" TYPE., FF B16.1, BLIND FLANGE A105, UL LISTED, MESH 1/4"</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J116" t="n">
-        <v>4</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>62,6</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>250,4</t>
-        </is>
-      </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>116</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>YST</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>A126 CL B, STRAINER "Y" TYPE., FF B16.1, BLIND FLANGE A105, UL LISTED, MESH 1/4"</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>12,00</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J117" t="n">
-        <v>1</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>253,1</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>253,1</t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>117</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>CHS</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="J118" t="n">
-        <v>1</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>19,00</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>19,00</t>
-        </is>
-      </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>118</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>CHS</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>SWING CHECK VALVE FL, MSS SP-136, A536 Gr 65-45-12, CL 125, INST HORIZ/VERT, FF, B16.1, BOLTED COVER, NON METALLIC FLAT GASKET EPDM, SEATS BRONZE, DISC DUCTILE IRON EPDM ENCAPSULATED, SS304 PIN,UL LISTED/FM APPROVED</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>12,00</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="J119" t="n">
-        <v>3</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>310,00</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>930,00</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>119</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>GAT</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J120" t="n">
-        <v>36</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>37,44</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>120</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>GAT</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>GATE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, S, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J121" t="n">
-        <v>7</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>1,67</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>11,69</t>
-        </is>
-      </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>121</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>GAT</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="J122" t="n">
-        <v>1</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>19,00</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>19,00</t>
-        </is>
-      </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>122</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>GAT</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="J123" t="n">
-        <v>7</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>29,00</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>203,00</t>
-        </is>
-      </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>123</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>GAT</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="J124" t="n">
-        <v>7</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>44,00</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>308,00</t>
-        </is>
-      </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>124</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>GAT</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="J125" t="n">
-        <v>22</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>68,00</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>1496,00</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>125</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>GAT</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="J126" t="n">
-        <v>6</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>104,00</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>624,00</t>
-        </is>
-      </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>126</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>GAT</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>10,00</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="J127" t="n">
-        <v>8</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>158,00</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>1264,00</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>127</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>GAT</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>12,00</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>FF</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="J128" t="n">
-        <v>10</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>216,00</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>2160,00</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>128</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>GLB</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>GLOBE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, SWIVEL PLUG DISC, STEM IS/RSRO, HO, UL LISTED</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J129" t="n">
-        <v>4</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>4,24</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>129</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>GLB</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>GLOBE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, SWIVEL PLUG DISC, STEM IS/RSRO, HO, UL LISTED</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J130" t="n">
-        <v>8</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>3,44</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>27,52</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>130</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>GLB</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>GLOBE VALVE THD, MSS SP-80, B62 UNS C83600, CL 150, NPTF, B1.20.1, SCREWED BONNET, PKG LUBRICATED FIBER/GRAPH, BRONZE STEM, SEAT RINGS&amp;DISC, SWIVEL PLUG DISC, STEM IS/RSRO, HO, UL LISTED</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>TE</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J131" t="n">
-        <v>47</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>5,7</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>267,9</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>131</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>GLB</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPT X NH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>FNPTxMNH</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>300 PSI CWP</t>
-        </is>
-      </c>
-      <c r="J132" t="n">
-        <v>8</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>7,08</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>56,64</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +526,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -559,12 +559,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>136,00</t>
+          <t>45,16</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -627,12 +627,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>11,29</t>
+          <t>16,08</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>858,04</t>
+          <t>48,24</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -652,17 +652,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -672,12 +672,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>147</v>
+        <v>4</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -695,12 +695,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>16,08</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2363,76</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -720,17 +720,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -740,12 +740,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -763,12 +763,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>28,26</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>452,16</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 20</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -831,12 +831,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>33,32</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>766,36</t>
+          <t>35,64</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -851,22 +851,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 30</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -876,35 +876,35 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>51,01</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>7294,43</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -919,22 +919,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 30</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -944,35 +944,35 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>81,33</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1870,59</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -987,22 +987,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1012,35 +1012,35 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>123,31</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>863,17</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1055,22 +1055,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1080,12 +1080,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1094,21 +1094,21 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>10,15</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1123,22 +1123,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1148,12 +1148,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1162,21 +1162,21 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>13,2</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1191,22 +1191,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>CAP</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>CAP, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1234,17 +1234,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1259,22 +1259,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PP</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1284,35 +1284,35 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>e.a</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>5,41</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1332,17 +1332,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1352,21 +1352,21 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1375,12 +1375,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1400,27 +1400,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>40x40</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1434,7 +1434,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1443,12 +1443,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1468,27 +1468,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40x40</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1511,12 +1511,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>36,00</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1536,32 +1536,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1579,12 +1579,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>19,65</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>216,15</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1647,12 +1647,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>34,00</t>
+          <t>0,324</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>34,00</t>
+          <t>0,972</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1672,41 +1672,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>REDUCING TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1715,12 +1715,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>15,6</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1740,12 +1740,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1755,26 +1755,26 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1783,12 +1783,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>56,84</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1808,41 +1808,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1851,12 +1851,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>81,9</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1876,41 +1876,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1919,12 +1919,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>153,00</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1944,41 +1944,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 20</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1987,12 +1987,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>16,57</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>198,84</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2012,32 +2012,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>SWC</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
+          <t>CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, PExPE, SCH 80x80</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>80x80</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PExPE</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2055,12 +2055,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>31,3</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>626,00</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2080,32 +2080,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>SWC</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
+          <t>CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, BExPE, SCH 40x80</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40x80</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>BExPE</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>68,00</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>136,00</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2148,17 +2148,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CAP</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CAP, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2168,21 +2168,21 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2191,12 +2191,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2216,17 +2216,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CPL</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2259,12 +2259,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2284,27 +2284,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2327,12 +2327,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2347,46 +2347,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>BLD</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2415,46 +2415,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>BLD</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2463,12 +2463,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>30,4</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2483,42 +2483,42 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30 x 20</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>30x20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2551,46 +2551,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ERE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30 x 20</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>30x20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2599,12 +2599,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>27,00</t>
+          <t>9,9</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2619,46 +2619,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -2667,12 +2667,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0,162</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0,162</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2687,42 +2687,42 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -2735,12 +2735,12 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2755,46 +2755,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2803,12 +2803,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>19,96</t>
+          <t>24,85</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2823,46 +2823,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30 x 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>30x40</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2871,12 +2871,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>10,7</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>74,9</t>
+          <t>35,55</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2891,46 +2891,46 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30 x 20</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>30x20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2939,12 +2939,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>0,025</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>81,00</t>
+          <t>0,025</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2959,46 +2959,46 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>40x30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3007,12 +3007,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>43,8</t>
+          <t>0,035</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>175,2</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3027,46 +3027,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 30</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>40x30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3075,12 +3075,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>43,8</t>
+          <t>0,047</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>43,8</t>
+          <t>0,282</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3095,17 +3095,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3125,16 +3125,16 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3143,12 +3143,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,097</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,097</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3163,27 +3163,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3193,16 +3193,16 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -3211,12 +3211,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,148</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3231,27 +3231,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3261,16 +3261,16 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3279,12 +3279,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>1,175</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3299,27 +3299,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>70mm</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3329,16 +3329,16 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -3347,12 +3347,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3367,27 +3367,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>75mm</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3397,16 +3397,16 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3415,12 +3415,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,129</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>2,064</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3435,27 +3435,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3465,16 +3465,16 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -3483,12 +3483,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>14,1</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3503,27 +3503,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>90mm</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3533,16 +3533,16 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -3551,12 +3551,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,888</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3571,22 +3571,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>FIGURE-8 BLANK, CS, ASTM A516 Gr.70, ASME B16.48, CLASS 150, RF</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3596,21 +3596,21 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -3619,12 +3619,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>36,00</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3639,17 +3639,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>YST</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>A216 GR.WCB, STRAINER "Y" TYPE; RF B16.5; SCREEN SS304; MESH SIZE 5X5 FOR 3" AND UNDER, 3X3 BETWEEN 3" TO 6", 1/2IN FOR OVER 6"; BLIND FLANGE A105, B16.5 SWG GCI SS304, B16.20; DRAIN A105, 3/4" HEX TYPE PLUG, NPTF END, B16.11</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3664,21 +3664,21 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -3687,12 +3687,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>8,44</t>
+          <t>50,00</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>33,76</t>
+          <t>50,00</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3707,22 +3707,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3732,21 +3732,21 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>800</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -3755,12 +3755,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>36,77</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>147,08</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3775,46 +3775,46 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 40</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>800</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -3823,17 +3823,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CSO</t>
         </is>
       </c>
     </row>
@@ -3843,46 +3843,46 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 40</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>30x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>800</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -3891,12 +3891,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>8,69</t>
+          <t>10,5</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3911,42 +3911,42 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 40</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>30x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>800</t>
         </is>
       </c>
       <c r="J52" t="n">
@@ -3959,17 +3959,17 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CSO</t>
         </is>
       </c>
     </row>
@@ -3979,22 +3979,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>CHL</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>LIFT CHECK VALVE SW, API 602, A105, CL 800, INST HORIZ/VERT, SW, B16.11, BOLTED COVER, SPW SS304/GRAPH, PISTON TYPE OBTURATOR, TRIM #8</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4009,12 +4009,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>800</t>
         </is>
       </c>
       <c r="J53" t="n">
@@ -4027,12 +4027,12 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -4047,22 +4047,22 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>CHS</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -4095,12 +4095,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>29,00</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>6,9</t>
+          <t>29,00</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -4115,22 +4115,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>DBB</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4154,7 +4154,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -4163,12 +4163,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>23,1</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -4183,22 +4183,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>GATE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4213,16 +4213,16 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>800</t>
         </is>
       </c>
       <c r="J56" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -4231,2531 +4231,15 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>32,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>224,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>BLD</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>16,00</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
-        <v>2</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>82,00</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>164,00</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>SW</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>WNK</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J59" t="n">
-        <v>27</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>2,55</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>68,85</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>WNK</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
-        <v>38</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>4,97</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>188,86</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>WNK</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>81</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>7,11</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>575,91</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>WNK</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J62" t="n">
-        <v>14</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>10,91</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>152,74</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>WNK</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 20</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J63" t="n">
-        <v>26</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>17,3</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>449,8</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>WNK</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 30</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>10,00</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J64" t="n">
-        <v>46</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>23,57</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>1084,22</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>WNK</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 30</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>14,00</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J65" t="n">
-        <v>2</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>50,49</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>100,98</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>WNK</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>16,00</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J66" t="n">
-        <v>2</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>65,43</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>130,86</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>0,066</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>0,066</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
-        <v>25</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>0,097</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>2,425</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J69" t="n">
-        <v>63</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>0,148</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>9,324</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J70" t="n">
-        <v>29</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>0,235</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>6,815</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J71" t="n">
-        <v>18</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>0,302</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>5,436</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J72" t="n">
-        <v>14</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>0,434</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>6,076</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>10,00</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J73" t="n">
-        <v>38</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>0,598</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>22,724</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>14,00</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
-        <v>2</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>1,102</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>2,204</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>16,00</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J75" t="n">
-        <v>2</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>1,432</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>2,864</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>YST</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>A216 GR.WCB, STRAINER "Y" TYPE; RF B16.5; SCREEN SS304; MESH SIZE 5X5 FOR 3" AND UNDER, 3X3 BETWEEN 3" TO 6", 1/2IN FOR OVER 6"; BLIND FLANGE A105, B16.5 SWG GCI SS304, B16.20; DRAIN A105, 3/4" HEX TYPE PLUG, NPTF END, B16.11</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>2</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>30,00</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>60,00</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>YST</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>A216 GR.WCB, STRAINER "Y" TYPE; RF B16.5; SCREEN SS304; MESH SIZE 5X5 FOR 3" AND UNDER, 3X3 BETWEEN 3" TO 6", 1/2IN FOR OVER 6"; BLIND FLANGE A105, B16.5 SWG GCI SS304, B16.20; DRAIN A105, 3/4" HEX TYPE PLUG, NPTF END, B16.11</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J77" t="n">
-        <v>4</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>50,00</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>200,00</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>YST</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>A216 GR.WCB, STRAINER "Y" TYPE; RF B16.5; SCREEN SS304; MESH SIZE 5X5 FOR 3" AND UNDER, 3X3 BETWEEN 3" TO 6", 1/2IN FOR OVER 6"; BLIND FLANGE A105, B16.5 SWG GCI SS304, B16.20; DRAIN A105, 3/4" HEX TYPE PLUG, NPTF END, B16.11</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J78" t="n">
-        <v>4</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>92,00</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>368,00</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>2</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>2,4</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>4,8</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
-        <v>3</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>3,5</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>10,5</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>81</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J82" t="n">
-        <v>3</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>15,00</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>45,00</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>82</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J83" t="n">
-        <v>19</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>25,00</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>475,00</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>83</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J84" t="n">
-        <v>5</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>45,00</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>225,00</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>84</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J85" t="n">
-        <v>7</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>77,00</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>539,00</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>85</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>CHS</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>19,00</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>19,00</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>86</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>CHS</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>10,00</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J87" t="n">
-        <v>3</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>266,00</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>798,00</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>87</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>GAT</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>18,00</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>18,00</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>88</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>GAT</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J89" t="n">
-        <v>8</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>144,00</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>1152,00</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>89</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>GAT</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>10,00</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J90" t="n">
-        <v>11</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>197,00</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>2167,00</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>90</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>GAT</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>14,00</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>406,00</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>406,00</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>91</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>GLB</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>GLOBE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PLUG DISC, STEM OS&amp;Y/RSRO, HO</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>SW</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>92</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>GLB</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>GLOBE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PLUG DISC, STEM OS&amp;Y/RSRO, HO</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>SW</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="J93" t="n">
-        <v>9</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>18,00</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,22 +511,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -536,35 +536,35 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19,2</t>
+          <t>45,16</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -579,22 +579,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -604,40 +604,40 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>16,08</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>48,24</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>CSO</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -647,22 +647,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -682,25 +682,25 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -715,22 +715,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -750,30 +750,30 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>7,00</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>CSO</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -783,22 +783,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -808,35 +808,35 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>e.a</t>
+          <t>m</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>15,00</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>105,00</t>
+          <t>35,64</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -851,22 +851,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -881,16 +881,16 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -899,12 +899,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>45,00</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>90,00</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -919,22 +919,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -949,12 +949,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J8" t="n">
@@ -967,12 +967,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>77,00</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>154,00</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -987,22 +987,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1017,16 +1017,16 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1035,12 +1035,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>133,00</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>266,00</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1055,22 +1055,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1080,21 +1080,21 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1103,12 +1103,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>266,00</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>532,00</t>
+          <t>10,15</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1123,22 +1123,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1148,21 +1148,21 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1171,12 +1171,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1580,00</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1580,00</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1191,22 +1191,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>CAP</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+          <t>CAP, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1216,17 +1216,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J12" t="n">
@@ -1239,12 +1239,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>144,00</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>144,00</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1259,22 +1259,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1289,16 +1289,16 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1307,17 +1307,17 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>144,00</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>144,00</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>CSO</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1327,22 +1327,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1357,16 +1357,16 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1375,12 +1375,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1466,00</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1466,00</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1395,46 +1395,46 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40x40</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1443,17 +1443,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1466,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>1466,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>CSO</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1463,42 +1463,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GLB</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GLOBE VALVE FL, API 623, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PARABOLIC DISC, STEM OS&amp;Y/RSRO, HO</t>
+          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40x40</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J16" t="n">
@@ -1511,12 +1511,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>27,00</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>27,00</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1531,63 +1531,2715 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NIP</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>100mm</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>12</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2,64</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NIP</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>100mm</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0,324</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0,972</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>RTE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>REDUCING TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>3</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SWC</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, PExPE, SCH 80x80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>80x80</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>PExPE</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SWC</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CONCENTRIC SWAGE, CS, ASTM A234 Gr.WPB, MSS SP-95, BExPE, SCH 40x80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>40x80</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>BExPE</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>TEE</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>TEE</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>3</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>TEE</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>BLD</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>BLD</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>11</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>9,9</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>7</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>6,3</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>5</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>4,97</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>24,85</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>5</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>7,11</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>35,55</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>0,025</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>0,025</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>10</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>0,035</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>6</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>0,047</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0,282</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>1</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>0,097</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0,097</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>5</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>0,148</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>5</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>0,235</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>1,175</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>70mm</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>44</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>0,125</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>5,5</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>75mm</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>16</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>0,129</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2,064</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0,625</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>100mm</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>60</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>0,235</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>14,1</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0,625</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>90mm</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>4</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>0,222</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0,888</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>F8</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>FIGURE-8 BLANK, CS, ASTM A516 Gr.70, ASME B16.48, CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>YST</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>A216 GR.WCB, STRAINER "Y" TYPE; RF B16.5; SCREEN SS304; MESH SIZE 5X5 FOR 3" AND UNDER, 3X3 BETWEEN 3" TO 6", 1/2IN FOR OVER 6"; BLIND FLANGE A105, B16.5 SWG GCI SS304, B16.20; DRAIN A105, 3/4" HEX TYPE PLUG, NPTF END, B16.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>50,00</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>VL</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>GLB</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>GLOBE VALVE FL, API 623, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SWIVEL PARABOLIC DISC, STEM OS&amp;Y/RSRO, HO</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>CSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>3</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>10,5</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>CSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CHL</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>LIFT CHECK VALVE SW, API 602, A105, CL 800, INST HORIZ/VERT, SW, B16.11, BOLTED COVER, SPW SS304/GRAPH, PISTON TYPE OBTURATOR, TRIM #8</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CHS</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>3,00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
         <is>
           <t>RF</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>150</t>
         </is>
       </c>
-      <c r="J17" t="n">
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>29,00</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>29,00</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DBB</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>6</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>GATE VALVE SW, API 602, API 598, A105, CL 800, SW, B16.11, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, SOLID WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
         <v>2</v>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>128,00</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>256,00</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>2,00</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>4,00</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>10,88</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -589,12 +589,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -627,12 +627,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>11,29</t>
+          <t>41,76</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>270,96</t>
+          <t>1169,28</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, API 5L Gr.B, ASME B36.10, PSL2, BE, SCH 20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -695,12 +695,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>16,08</t>
+          <t>49,71</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>16,08</t>
+          <t>99,42</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -720,17 +720,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, BE, SCH 40</t>
+          <t>PIPE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -740,12 +740,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -763,12 +763,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>28,26</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>565,2</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -831,12 +831,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>6,48</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -899,12 +899,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>15,4</t>
+          <t>103,68</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -929,12 +929,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -944,21 +944,21 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -967,12 +967,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -992,17 +992,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1012,21 +1012,21 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1035,12 +1035,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>9,1</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1060,17 +1060,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1103,12 +1103,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>25,79</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>257,9</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1128,41 +1128,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>ERE</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20 x 20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20x20</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1171,12 +1171,12 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1196,41 +1196,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>ERE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20 x 20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20x20</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1239,12 +1239,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>10,16</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>10,16</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1264,27 +1264,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>ERE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>ECCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 30 x 30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30x30</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1332,32 +1332,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1375,12 +1375,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>38,57</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1400,32 +1400,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>80</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1434,7 +1434,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1443,12 +1443,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>0,324</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>112,2</t>
+          <t>5,184</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1468,41 +1468,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CAP</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CAP, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>REDUCING TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1511,12 +1511,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1536,37 +1536,37 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CAP</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CAP, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J17" t="n">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1604,22 +1604,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CPL</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1647,12 +1647,12 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1672,22 +1672,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CPL</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1715,12 +1715,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1740,41 +1740,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1783,12 +1783,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1808,41 +1808,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 80 x 80</t>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>80x80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1851,12 +1851,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1876,41 +1876,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1919,12 +1919,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0,162</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0,324</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1944,32 +1944,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1978,7 +1978,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1987,12 +1987,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>34,7</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>138,8</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2007,42 +2007,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>BLD</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -2055,12 +2055,12 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0,324</t>
+          <t>57,00</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0,324</t>
+          <t>57,00</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2075,42 +2075,42 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NIPPLE, SEAMLESS, CS, ASTM A106 Gr.B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -2123,12 +2123,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0,541</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1,082</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2143,17 +2143,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>REDUCING TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2173,16 +2173,16 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2191,12 +2191,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>12,6</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2211,46 +2211,46 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2259,12 +2259,12 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2279,46 +2279,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2327,12 +2327,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>10,36</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2347,42 +2347,42 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40 x 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -2395,12 +2395,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>29,59</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>32,00</t>
+          <t>59,18</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2415,46 +2415,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2463,12 +2463,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>42,35</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>889,35</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2483,46 +2483,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -2531,12 +2531,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>60,59</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>121,18</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2551,27 +2551,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2581,16 +2581,16 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>800</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -2599,12 +2599,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2649,12 +2649,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>800</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -2667,17 +2667,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CSO</t>
         </is>
       </c>
     </row>
@@ -2687,22 +2687,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SEAMLESS, CS, ASTM A234 Gr.WPB, ASME B16.9, BW, SCH 40</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2712,21 +2712,21 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>800</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -2735,12 +2735,12 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>19,3</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>19,3</t>
+          <t>17,5</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2755,46 +2755,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 40</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>800</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -2803,17 +2803,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>7,00</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CSO</t>
         </is>
       </c>
     </row>
@@ -2823,22 +2823,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>CHS</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 300, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2858,11 +2858,11 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -2871,12 +2871,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>384,00</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>768,00</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2891,22 +2891,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>DBB</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 300, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2926,11 +2926,11 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -2939,12 +2939,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>13,6</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2959,22 +2959,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BLD</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>BLIND FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 300, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2994,7 +2994,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -3007,12 +3007,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>11,8</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>11,8</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3027,22 +3027,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -3075,12 +3075,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>0,035</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3095,17 +3095,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3130,11 +3130,11 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -3143,12 +3143,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,049</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>0,245</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3163,17 +3163,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3211,12 +3211,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,047</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,047</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3231,22 +3231,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3266,11 +3266,11 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -3279,12 +3279,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>0,057</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>0,114</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3299,22 +3299,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 80</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3347,12 +3347,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3367,22 +3367,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3402,11 +3402,11 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -3415,12 +3415,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>0,789</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>49,7</t>
+          <t>15,78</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3435,22 +3435,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3470,11 +3470,11 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -3483,12 +3483,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>7,11</t>
+          <t>1,034</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>21,33</t>
+          <t>2,068</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3503,46 +3503,46 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 80</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>70mm</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -3551,12 +3551,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>12,17</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>12,17</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3571,46 +3571,46 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>75mm</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -3619,12 +3619,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>10,91</t>
+          <t>0,129</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>54,55</t>
+          <t>0,516</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3639,46 +3639,46 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>WNK</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 80</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>85mm</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -3687,12 +3687,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>21,52</t>
+          <t>0,216</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>21,52</t>
+          <t>6,048</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3707,27 +3707,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>90mm</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3737,16 +3737,16 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -3755,12 +3755,12 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,776</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3775,27 +3775,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,875</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150mm</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3805,16 +3805,16 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -3823,17 +3823,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>0,656</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>15,744</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>CSC</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3843,17 +3843,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>170mm</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3873,16 +3873,16 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>288</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -3891,12 +3891,12 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>0,957</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>275,616</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3911,27 +3911,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>BOLT</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,125</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>185mm</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3941,16 +3941,16 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -3959,2055 +3959,15 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>1,331</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>42,592</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>15,00</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>15,00</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J54" t="n">
-        <v>2</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>25,00</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>50,00</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>45,00</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>45,00</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>BAL</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR.WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>77,00</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>77,00</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>CHL</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>LIFT CHECK VALVE SW, API 602, A105, CL 800, INST HORIZ/VERT, SW, B16.11, BOLTED COVER, SPW SS304/GRAPH, PISTON TYPE OBTURATOR, TRIM #8</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>SW</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
-        <v>1</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>CHS</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 300, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="J58" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>21,00</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>CHS</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J59" t="n">
-        <v>1</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>29,00</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>29,00</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>CHS</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR.WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>48,00</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>48,00</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>DBB</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>INTEGRAL MONO FLANGE DBB NEEDLE MULTI-VALVE, EEMUA 182, A105, CL 150, RF/NPTF, B16.5 AND B1.20.1, BB, SPW SS304/GRAPH, PKG GRAPH; SS316 STEM, SEATS&amp;STEM TIP, S, SWIVEL NEEDLE, STEM OS&amp;Y/RSRO, T-HANDLE</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>7</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>14,00</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>GAT</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>18,00</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>18,00</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>VL</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>GAT</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR.WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J63" t="n">
-        <v>2</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>34,00</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>68,00</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>YST</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>A216 GR.WCB, STRAINER "Y" TYPE; RF B16.5; SCREEN SS304; MESH SIZE 5X5 FOR 3" AND UNDER, 3X3 BETWEEN 3" TO 6", 1/2IN FOR OVER 6"; BLIND FLANGE A105, B16.5 SWG GCI SS304, B16.20; DRAIN A105, 3/4" HEX TYPE PLUG, NPTF END, B16.11</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J64" t="n">
-        <v>1</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>92,00</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>92,00</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J65" t="n">
-        <v>2</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>0,025</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>0,05</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J66" t="n">
-        <v>7</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>0,035</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>0,245</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>0,047</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>0,047</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
-        <v>4</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>0,097</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>0,388</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>2,00</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="J69" t="n">
-        <v>2</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>0,113</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>0,226</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>3,00</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J70" t="n">
-        <v>11</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>0,148</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>1,628</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J71" t="n">
-        <v>4</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>0,235</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>0,94</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>4,00</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>0,263</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>0,263</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="J73" t="n">
-        <v>5</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>0,302</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>1,51</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>6,00</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>0,468</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>0,468</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>70mm</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J75" t="n">
-        <v>36</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>0,125</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>4,5</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>0,5</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>75mm</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>4</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>0,129</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>0,516</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>0,625</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>100mm</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J77" t="n">
-        <v>76</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>0,235</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>17,86</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>0,625</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>90mm</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J78" t="n">
-        <v>16</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>0,222</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>3,552</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>0,625</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>95mm</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J79" t="n">
-        <v>16</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>0,229</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>3,664</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>115mm</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J80" t="n">
-        <v>40</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>0,401</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>16,04</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>125mm</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J81" t="n">
-        <v>8</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>3,36</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>81</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, A193 Gr.B7/A194 Gr.2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>135mm</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J82" t="n">
-        <v>12</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>0,438</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>5,256</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,65 +441,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Catalogacion</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>TYPE</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>TYPE_CODE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FIRST_SIZE_NUMBER</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>SECOND_SIZE_NUMBER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>SCH</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>FACE</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>RATING</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>QTY</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>UNITS</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>WEIGHT_PER_UNIT</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>TOTAL_WEIGHT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>NOTE</t>
         </is>
@@ -511,27 +516,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>PIPE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -541,33 +546,38 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="J2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>m</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -579,29 +589,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>PP</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>PIPE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>0,75</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>-</t>
@@ -609,35 +619,40 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>2</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>m</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>CSO</t>
+          <t>4,4</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -647,65 +662,3428 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>PIPE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>32</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>3,24</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>103,68</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PIPE, SMLS, CS, API 5L GR B, ASME B36.10, PSL2, BE, SCH 20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>28</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>41,76</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1169,28</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>PIPE, SMLS, CS, API 5L GR B, ASME B36.10, PSL2, BE, SCH 20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>BE</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>49,71</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>99,42</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45L</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ELBOW 45 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3028590.0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>90L</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>26</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>9,1</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>90L</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ELBOW 90 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>25,79</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>257,9</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ERE</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>ECCENTRIC REDUCER, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20 x 20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>20x20</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ERE</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>ECCENTRIC REDUCER, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20 x 20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>20x20</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>10,16</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>10,16</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ERE</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>ECCENTRIC REDUCER, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 30 x 30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>30x30</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NIP</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NIPPLE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>100mm</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>19</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>4,18</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NIP</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NIPPLE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>100mm</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>16</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0,324</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>5,184</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3028601.0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>RTE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>REDUCING TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>5</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>4</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3028322.0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>TEE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3028321.0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>TEE</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>3000</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TEE</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>STRAIGHT TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, BW, SCH 20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>BW</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>4</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>34,7</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>138,8</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3028718.0</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>9</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>12,6</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3028717.0</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>3</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>0,9</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>6</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>8,4</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3028689.0</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>29,59</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>59,18</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>20</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>42,35</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>847,00</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>WNK</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 300, RF, SCH 20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>60,59</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>121,18</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>VL</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>BAL</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>6</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>14,4</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>CSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>1,00</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>800</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="K31" t="n">
+        <v>4</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>14,00</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>2</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>3,5</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>7,00</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>CSO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>BALL VALVE FL, RB, LP, TRUNNION BALL, API 608, A216 GR WCB, CL 300, RF, B16.5, A105N + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, SEAT RINGS A105N + ENP, API 607, GO</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>4</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>295,00</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>1180,00</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CHS</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR WCB, CL 300, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>384,00</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>768,00</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>VL</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>GAT</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 300, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>F8</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>FIGURE-8 BLANK, CS, ASTM A516 GR 70 + S5, ASME B16.48, IMPACT TEST AT 32°F ACCORDING TO PARA 423.2.3 OF ASME B31.4 FOR ACCEPTANCE CRITERIA, CLASS 300, RF</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>29,22</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>58,44</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>2</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>0,035</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>5</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0,049</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>0,245</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>0,047</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>0,047</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>0,057</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>0,114</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8,00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>10,00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>19</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0,789</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>14,991</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 300, RF</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>12,00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1,034</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2,068</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>70mm</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>12</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0,125</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>75mm</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>4</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0,129</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>0,516</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>3029339.0</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0,625</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>85mm</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>16</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0,216</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>3,456</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>3029340.0</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0,625</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>90mm</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>20</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0,222</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>4,44</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0,875</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>150mm</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>12</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0,656</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>7,872</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1,00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>170mm</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>272</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>0,957</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>260,304</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>BL</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>BOLT</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1,125</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>185mm</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>32</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>e.a</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1,331</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>42,592</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O175"/>
+  <dimension ref="A1:O166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -574,7 +574,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>25,92</t>
+          <t>51,84</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>10,88</t>
+          <t>21,76</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>80,4</t>
+          <t>160,8</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>11,29</t>
+          <t>22,58</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>161</v>
+        <v>322</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2078,51</t>
+          <t>4157,02</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>96,48</t>
+          <t>192,96</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>164</v>
+        <v>328</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4634,64</t>
+          <t>9269,28</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>612</v>
+        <v>1224</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>17295,12</t>
+          <t>34590,24</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>99,96</t>
+          <t>199,92</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>274</v>
+        <v>548</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>9129,68</t>
+          <t>18259,36</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>459,09</t>
+          <t>918,18</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>894,78</t>
+          <t>1789,56</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>975,96</t>
+          <t>1951,92</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>345</v>
+        <v>690</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>28058,85</t>
+          <t>56117,7</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>739,86</t>
+          <t>1479,72</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>226</v>
+        <v>452</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>21079,02</t>
+          <t>42158,04</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>386</v>
+        <v>772</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>80924,9</t>
+          <t>161849,8</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>15,3</t>
+          <t>30,6</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>72,00</t>
+          <t>144,00</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>272,00</t>
+          <t>544,00</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2093,7 +2093,7 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>240,00</t>
+          <t>480,00</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>956,1</t>
+          <t>1912,2</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2239,7 +2239,7 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>4,06</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>27,3</t>
+          <t>54,6</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>11,7</t>
+          <t>23,4</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>357,00</t>
+          <t>714,00</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>165,7</t>
+          <t>331,4</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>62,6</t>
+          <t>125,2</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>184,24</t>
+          <t>368,48</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>408,00</t>
+          <t>816,00</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2969,7 +2969,7 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2108,00</t>
+          <t>4216,00</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>624,4</t>
+          <t>1248,8</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>3505,7</t>
+          <t>7011,4</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3261,7 +3261,7 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>19,5</t>
+          <t>39,00</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>40,64</t>
+          <t>81,28</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>131,4</t>
+          <t>262,8</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3699,7 +3699,7 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>0,648</t>
+          <t>1,296</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>44,7</t>
+          <t>89,4</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3991,7 +3991,7 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>64,00</t>
+          <t>128,00</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -4064,7 +4064,7 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>32,00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>84,00</t>
+          <t>168,00</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>56,00</t>
+          <t>112,00</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4283,7 +4283,7 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>124,4</t>
+          <t>248,8</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>80,4</t>
+          <t>160,8</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>175,2</t>
+          <t>350,4</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4648,7 +4648,7 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4794,7 +4794,7 @@
         </is>
       </c>
       <c r="K60" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -4808,7 +4808,7 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>18,83</t>
+          <t>37,66</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>8,44</t>
+          <t>16,88</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4940,7 +4940,7 @@
         </is>
       </c>
       <c r="K62" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>148,32</t>
+          <t>296,64</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="K63" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>116,00</t>
+          <t>232,00</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -5086,7 +5086,7 @@
         </is>
       </c>
       <c r="K64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -5100,7 +5100,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>73,54</t>
+          <t>147,08</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -5159,7 +5159,7 @@
         </is>
       </c>
       <c r="K65" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>279,00</t>
+          <t>558,00</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="K66" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -5246,7 +5246,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>465,00</t>
+          <t>930,00</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5305,7 +5305,7 @@
         </is>
       </c>
       <c r="K67" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -5319,7 +5319,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>460,00</t>
+          <t>920,00</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5378,7 +5378,7 @@
         </is>
       </c>
       <c r="K68" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>1774,2</t>
+          <t>3548,4</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="K69" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>14,48</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5524,7 +5524,7 @@
         </is>
       </c>
       <c r="K70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5597,7 +5597,7 @@
         </is>
       </c>
       <c r="K71" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         </is>
       </c>
       <c r="K72" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>70,76</t>
+          <t>141,52</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5743,7 +5743,7 @@
         </is>
       </c>
       <c r="K73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5816,7 +5816,7 @@
         </is>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5889,7 +5889,7 @@
         </is>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="K76" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>10,8</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -6035,7 +6035,7 @@
         </is>
       </c>
       <c r="K77" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>30,6</t>
+          <t>20,4</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -6108,7 +6108,7 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>19,88</t>
+          <t>39,76</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -6181,7 +6181,7 @@
         </is>
       </c>
       <c r="K79" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>29,82</t>
+          <t>19,88</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="K80" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>35,55</t>
+          <t>71,1</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="K81" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>127,98</t>
+          <t>85,32</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="K82" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>207,29</t>
+          <t>414,58</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6473,7 +6473,7 @@
         </is>
       </c>
       <c r="K83" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>130,92</t>
+          <t>87,28</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="K84" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>259,5</t>
+          <t>519,00</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6619,7 +6619,7 @@
         </is>
       </c>
       <c r="K85" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>570,9</t>
+          <t>380,6</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="K86" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>989,94</t>
+          <t>659,96</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6765,7 +6765,7 @@
         </is>
       </c>
       <c r="K87" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>112,26</t>
+          <t>224,52</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6838,7 +6838,7 @@
         </is>
       </c>
       <c r="K88" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>3635,28</t>
+          <t>2423,52</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="K89" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>1262,25</t>
+          <t>2524,5</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6984,7 +6984,7 @@
         </is>
       </c>
       <c r="K90" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>1177,74</t>
+          <t>785,16</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="K91" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>986,88</t>
+          <t>1973,76</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -7130,7 +7130,7 @@
         </is>
       </c>
       <c r="K92" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>5439,00</t>
+          <t>3626,00</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="K93" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7276,7 +7276,7 @@
         </is>
       </c>
       <c r="K94" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -7290,7 +7290,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>180,00</t>
+          <t>120,00</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7349,7 +7349,7 @@
         </is>
       </c>
       <c r="K95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -7363,7 +7363,7 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>135,00</t>
+          <t>90,00</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="K96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>399,00</t>
+          <t>266,00</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7495,7 +7495,7 @@
         </is>
       </c>
       <c r="K97" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -7509,7 +7509,7 @@
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>1596,00</t>
+          <t>1064,00</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7568,7 +7568,7 @@
         </is>
       </c>
       <c r="K98" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -7582,7 +7582,7 @@
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>4059,00</t>
+          <t>2706,00</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7641,7 +7641,7 @@
         </is>
       </c>
       <c r="K99" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -7655,7 +7655,7 @@
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>9480,00</t>
+          <t>6320,00</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>19,00</t>
+          <t>38,00</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7787,7 +7787,7 @@
         </is>
       </c>
       <c r="K101" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -7801,7 +7801,7 @@
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>25,17</t>
+          <t>50,34</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7860,7 +7860,7 @@
         </is>
       </c>
       <c r="K102" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>116,00</t>
+          <t>232,00</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7933,7 +7933,7 @@
         </is>
       </c>
       <c r="K103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>102,00</t>
+          <t>68,00</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -8006,7 +8006,7 @@
         </is>
       </c>
       <c r="K104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>264,00</t>
+          <t>176,00</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -8079,7 +8079,7 @@
         </is>
       </c>
       <c r="K105" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -8093,7 +8093,7 @@
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>864,00</t>
+          <t>576,00</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="K106" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>1704,00</t>
+          <t>3408,00</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8225,7 +8225,7 @@
         </is>
       </c>
       <c r="K107" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>7308,00</t>
+          <t>4872,00</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8298,7 +8298,7 @@
         </is>
       </c>
       <c r="K108" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -8312,7 +8312,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>1480,00</t>
+          <t>2960,00</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="K109" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>4716,00</t>
+          <t>3144,00</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8444,7 +8444,7 @@
         </is>
       </c>
       <c r="K110" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -8458,7 +8458,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>169,92</t>
+          <t>339,84</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
@@ -8517,7 +8517,7 @@
         </is>
       </c>
       <c r="K111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>16,17</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8590,7 +8590,7 @@
         </is>
       </c>
       <c r="K112" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -8604,7 +8604,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>124,8</t>
+          <t>83,2</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8663,7 +8663,7 @@
         </is>
       </c>
       <c r="K113" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8736,7 +8736,7 @@
         </is>
       </c>
       <c r="K114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8809,7 +8809,7 @@
         </is>
       </c>
       <c r="K115" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>2,328</t>
+          <t>1,552</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8882,7 +8882,7 @@
         </is>
       </c>
       <c r="K116" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8955,7 +8955,7 @@
         </is>
       </c>
       <c r="K117" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>0,888</t>
+          <t>0,592</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -9028,7 +9028,7 @@
         </is>
       </c>
       <c r="K118" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -9101,7 +9101,7 @@
         </is>
       </c>
       <c r="K119" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -9174,7 +9174,7 @@
         </is>
       </c>
       <c r="K120" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -9188,7 +9188,7 @@
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -9247,7 +9247,7 @@
         </is>
       </c>
       <c r="K121" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>3,624</t>
+          <t>2,416</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -9320,7 +9320,7 @@
         </is>
       </c>
       <c r="K122" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -9334,7 +9334,7 @@
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9393,7 +9393,7 @@
         </is>
       </c>
       <c r="K123" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>19,53</t>
+          <t>13,02</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -9466,7 +9466,7 @@
         </is>
       </c>
       <c r="K124" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>10,764</t>
+          <t>7,176</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9539,7 +9539,7 @@
         </is>
       </c>
       <c r="K125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9612,7 +9612,7 @@
         </is>
       </c>
       <c r="K126" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -9626,7 +9626,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>8,74</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9685,7 +9685,7 @@
         </is>
       </c>
       <c r="K127" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -9699,7 +9699,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>56,202</t>
+          <t>37,468</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9758,7 +9758,7 @@
         </is>
       </c>
       <c r="K128" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9831,7 +9831,7 @@
         </is>
       </c>
       <c r="K129" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -9845,7 +9845,7 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>25,776</t>
+          <t>17,184</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -9904,7 +9904,7 @@
         </is>
       </c>
       <c r="K130" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -9918,7 +9918,7 @@
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>39,888</t>
+          <t>26,592</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9958,7 +9958,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>0mm</t>
+          <t>70mm</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -9986,12 +9986,12 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -10021,17 +10021,17 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>70mm</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -10050,7 +10050,7 @@
         </is>
       </c>
       <c r="K132" t="n">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -10059,12 +10059,12 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>0,125</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>22,56</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -10099,12 +10099,12 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>75mm</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -10123,7 +10123,7 @@
         </is>
       </c>
       <c r="K133" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -10132,12 +10132,12 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>0,129</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>2,064</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -10177,7 +10177,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>0mm</t>
+          <t>90mm</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="K134" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -10205,12 +10205,12 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,888</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10225,7 +10225,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3029340.0</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -10250,7 +10250,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>0mm</t>
+          <t>90mm</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -10269,7 +10269,7 @@
         </is>
       </c>
       <c r="K135" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -10278,12 +10278,12 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>7,104</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10298,7 +10298,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>3029340.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -10318,12 +10318,12 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>0mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -10333,16 +10333,16 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K136" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -10391,12 +10391,12 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>115mm</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -10415,7 +10415,7 @@
         </is>
       </c>
       <c r="K137" t="n">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -10424,12 +10424,12 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>0,401</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>23,5</t>
+          <t>70,576</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10444,7 +10444,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3029333.0</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -10464,12 +10464,12 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>115mm</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -10497,12 +10497,12 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>0,401</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>9,624</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10517,7 +10517,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>3029340.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -10532,17 +10532,17 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>120mm</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -10561,7 +10561,7 @@
         </is>
       </c>
       <c r="K139" t="n">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -10570,12 +10570,12 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>7,52</t>
+          <t>22,96</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10605,17 +10605,17 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>110mm</t>
+          <t>120mm</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -10634,7 +10634,7 @@
         </is>
       </c>
       <c r="K140" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -10643,12 +10643,12 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>0,248</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>7,936</t>
+          <t>32,8</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10678,17 +10678,17 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>110mm</t>
+          <t>135mm</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -10716,12 +10716,12 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>0,248</t>
+          <t>0,438</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>1,984</t>
+          <t>3,504</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10736,7 +10736,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3029342.0</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -10751,17 +10751,17 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,875</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>125mm</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -10780,7 +10780,7 @@
         </is>
       </c>
       <c r="K142" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -10789,12 +10789,12 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>0,254</t>
+          <t>0,592</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>16,256</t>
+          <t>42,624</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10824,17 +10824,17 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,875</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>135mm</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -10853,7 +10853,7 @@
         </is>
       </c>
       <c r="K143" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -10862,12 +10862,12 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>0,254</t>
+          <t>0,617</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>4,064</t>
+          <t>7,404</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10902,12 +10902,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>90mm</t>
+          <t>145mm</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -10926,7 +10926,7 @@
         </is>
       </c>
       <c r="K144" t="n">
-        <v>4</v>
+        <v>228</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -10935,12 +10935,12 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,873</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>0,888</t>
+          <t>199,044</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>3029340.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -10975,12 +10975,12 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>90mm</t>
+          <t>145mm</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -10999,7 +10999,7 @@
         </is>
       </c>
       <c r="K145" t="n">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -11008,12 +11008,12 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,873</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>7,104</t>
+          <t>178,092</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -11048,12 +11048,12 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>0mm</t>
+          <t>150mm</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -11072,7 +11072,7 @@
         </is>
       </c>
       <c r="K146" t="n">
-        <v>240</v>
+        <v>128</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -11081,12 +11081,12 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>113,92</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -11121,12 +11121,12 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>0mm</t>
+          <t>150mm</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -11145,7 +11145,7 @@
         </is>
       </c>
       <c r="K147" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -11154,12 +11154,12 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>85,44</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -11174,7 +11174,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>3029333.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -11194,12 +11194,12 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>0mm</t>
+          <t>190mm</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -11218,7 +11218,7 @@
         </is>
       </c>
       <c r="K148" t="n">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -11227,12 +11227,12 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,721</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>206,52</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11267,12 +11267,12 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K149" t="n">
-        <v>176</v>
+        <v>4</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>0,401</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>70,576</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>3029333.0</t>
+          <t>3029340.0</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -11340,12 +11340,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -11355,16 +11355,16 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K150" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -11373,12 +11373,12 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>0,401</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>9,624</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11413,12 +11413,12 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>120mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -11428,16 +11428,16 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K151" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -11446,12 +11446,12 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>26,24</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11486,12 +11486,12 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>120mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -11501,16 +11501,16 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K152" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -11519,12 +11519,12 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>32,8</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11559,12 +11559,12 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>125mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -11574,16 +11574,16 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K153" t="n">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -11592,12 +11592,12 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>73,92</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -11612,7 +11612,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>3029333.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -11632,12 +11632,12 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>125mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -11647,16 +11647,16 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K154" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -11665,12 +11665,12 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>10,08</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -11705,12 +11705,12 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>135mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -11720,16 +11720,16 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K155" t="n">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -11738,12 +11738,12 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>0,438</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>28,032</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -11758,7 +11758,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3029333.0</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -11778,12 +11778,12 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>135mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -11793,16 +11793,16 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K156" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -11811,12 +11811,12 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>0,438</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>35,04</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11851,12 +11851,12 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>0,875</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>0mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -11866,16 +11866,16 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K157" t="n">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -11904,7 +11904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>3029342.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -11924,12 +11924,12 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>0,875</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>0mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -11939,16 +11939,16 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K158" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>3029342.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -11992,17 +11992,17 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>0,875</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>125mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -12012,16 +12012,16 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K159" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -12030,12 +12030,12 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>0,592</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>42,624</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
@@ -12050,7 +12050,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3029342.0</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -12065,17 +12065,17 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>0,875</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>135mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -12085,16 +12085,16 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K160" t="n">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -12103,12 +12103,12 @@
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>0,617</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>7,404</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
@@ -12123,7 +12123,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>3029342.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -12138,17 +12138,17 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>0,875</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>145mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -12158,16 +12158,16 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K161" t="n">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -12176,12 +12176,12 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>0,643</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>46,296</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
@@ -12216,12 +12216,12 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>0,875</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>150mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -12231,16 +12231,16 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K162" t="n">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -12249,12 +12249,12 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>0,656</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>7,872</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
@@ -12284,17 +12284,17 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>0mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -12304,16 +12304,16 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K163" t="n">
-        <v>356</v>
+        <v>204</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -12357,17 +12357,17 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>0mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -12377,16 +12377,16 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K164" t="n">
-        <v>300</v>
+        <v>128</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -12430,17 +12430,17 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>145mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -12450,16 +12450,16 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K165" t="n">
-        <v>228</v>
+        <v>96</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -12468,12 +12468,12 @@
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>0,873</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>199,044</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
@@ -12508,12 +12508,12 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>145mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -12523,16 +12523,16 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K166" t="n">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -12541,672 +12541,15 @@
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>0,873</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>178,092</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>166</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>150mm</t>
-        </is>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K167" t="n">
-        <v>128</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="N167" t="inlineStr">
-        <is>
-          <t>113,92</t>
-        </is>
-      </c>
-      <c r="O167" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>167</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>150mm</t>
-        </is>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K168" t="n">
-        <v>96</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="N168" t="inlineStr">
-        <is>
-          <t>85,44</t>
-        </is>
-      </c>
-      <c r="O168" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>168</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>170mm</t>
-        </is>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K169" t="n">
-        <v>228</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>0,957</t>
-        </is>
-      </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>218,196</t>
-        </is>
-      </c>
-      <c r="O169" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>169</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>170mm</t>
-        </is>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K170" t="n">
-        <v>204</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>0,957</t>
-        </is>
-      </c>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>195,228</t>
-        </is>
-      </c>
-      <c r="O170" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>170</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>180mm</t>
-        </is>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K171" t="n">
-        <v>128</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>0,991</t>
-        </is>
-      </c>
-      <c r="N171" t="inlineStr">
-        <is>
-          <t>126,848</t>
-        </is>
-      </c>
-      <c r="O171" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>171</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>1,00</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>180mm</t>
-        </is>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K172" t="n">
-        <v>96</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="M172" t="inlineStr">
-        <is>
-          <t>0,991</t>
-        </is>
-      </c>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>95,136</t>
-        </is>
-      </c>
-      <c r="O172" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>172</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>1,25</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>190mm</t>
-        </is>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K173" t="n">
-        <v>120</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>1,721</t>
-        </is>
-      </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>206,52</t>
-        </is>
-      </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>173</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>1,375</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>0mm</t>
-        </is>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K174" t="n">
-        <v>120</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N174" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O174" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>174</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>1,375</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>220mm</t>
-        </is>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K175" t="n">
-        <v>120</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="M175" t="inlineStr">
-        <is>
-          <t>2,36</t>
-        </is>
-      </c>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>283,2</t>
-        </is>
-      </c>
-      <c r="O175" t="inlineStr">
         <is>
           <t>-</t>
         </is>

--- a/output/summary.xlsx
+++ b/output/summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O166"/>
+  <dimension ref="A1:O158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -574,7 +574,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>51,84</t>
+          <t>22,68</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>21,76</t>
+          <t>10,88</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>160,8</t>
+          <t>80,4</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>22,58</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>322</v>
+        <v>20</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>4157,02</t>
+          <t>258,2</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>192,96</t>
+          <t>96,48</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -998,7 +998,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>328</v>
+        <v>19</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>9269,28</t>
+          <t>536,94</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1224</v>
+        <v>748</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>34590,24</t>
+          <t>21138,48</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>199,92</t>
+          <t>99,96</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>548</v>
+        <v>279</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>18259,36</t>
+          <t>9296,28</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>918,18</t>
+          <t>459,09</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1789,56</t>
+          <t>894,78</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1951,92</t>
+          <t>975,96</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>690</v>
+        <v>351</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1523,7 +1523,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>56117,7</t>
+          <t>28546,83</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1479,72</t>
+          <t>739,86</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>452</v>
+        <v>226</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>42158,04</t>
+          <t>21079,02</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>772</v>
+        <v>386</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>161849,8</t>
+          <t>80924,9</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1772,12 +1772,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 30</t>
+          <t>ELBOW 45 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1810,12 +1810,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>25,5</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3028560.0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1845,12 +1845,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 40</t>
+          <t>ELBOW 45 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 20</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1860,7 +1860,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1874,7 +1874,7 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1883,12 +1883,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>9,00</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>30,6</t>
+          <t>72,00</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3028560.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1918,12 +1918,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 20</t>
+          <t>ELBOW 45 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH STD</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>STD</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1956,12 +1956,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>9,00</t>
+          <t>34,00</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>144,00</t>
+          <t>272,00</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -2029,12 +2029,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>34,00</t>
+          <t>48,00</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>544,00</t>
+          <t>240,00</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2064,12 +2064,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH STD</t>
+          <t>ELBOW 45 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2093,7 +2093,7 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -2102,12 +2102,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>48,00</t>
+          <t>159,35</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>480,00</t>
+          <t>956,1</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3028591.0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2132,17 +2132,17 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>45L</t>
+          <t>90L</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ELBOW 45 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 30</t>
+          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2152,21 +2152,21 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>159,35</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>1912,2</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3028591.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2210,12 +2210,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>ELBOW 90 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2225,21 +2225,21 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -2248,12 +2248,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3028590.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2283,12 +2283,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>ELBOW 90 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2298,21 +2298,21 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2321,12 +2321,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>11,7</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2394,12 +2394,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>459,00</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3028302.0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2429,12 +2429,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 30</t>
+          <t>ELBOW 90 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 20</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2467,12 +2467,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>16,57</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>54,6</t>
+          <t>165,7</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2502,12 +2502,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 40</t>
+          <t>ELBOW 90 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 30</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2540,12 +2540,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>31,3</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>23,4</t>
+          <t>62,6</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2575,12 +2575,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 40</t>
+          <t>ELBOW 90 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 20</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2613,12 +2613,12 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>10,2</t>
+          <t>46,06</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>714,00</t>
+          <t>184,24</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3028302.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 20</t>
+          <t>ELBOW 90 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2663,7 +2663,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2686,12 +2686,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16,57</t>
+          <t>68,00</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>331,4</t>
+          <t>408,00</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2721,12 +2721,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 30</t>
+          <t>ELBOW 90 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH STD</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>STD</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2759,12 +2759,12 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>31,3</t>
+          <t>68,00</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>125,2</t>
+          <t>2108,00</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2794,12 +2794,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 20</t>
+          <t>ELBOW 90 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH STD</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>STD</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2823,7 +2823,7 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2832,12 +2832,12 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>46,06</t>
+          <t>89,2</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>368,48</t>
+          <t>624,4</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2905,12 +2905,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>68,00</t>
+          <t>318,7</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>816,00</t>
+          <t>3505,7</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2935,17 +2935,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH STD</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2955,21 +2955,21 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2978,12 +2978,12 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>68,00</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>4216,00</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -3008,17 +3008,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>CPL</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH STD</t>
+          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3028,21 +3028,21 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -3051,12 +3051,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>89,2</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>1248,8</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3081,27 +3081,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>90L</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ELBOW 90 DEG LR, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 30</t>
+          <t>CONCENTRIC REDUCER, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 20x40</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20x40</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -3124,12 +3124,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>318,7</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>7011,4</t>
+          <t>19,5</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3154,41 +3154,41 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CPL</t>
+          <t>CRE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>CONCENTRIC REDUCER, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 20x40</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>20x40</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -3197,12 +3197,12 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3227,41 +3227,41 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CPL</t>
+          <t>ERE</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>COUPLING, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>ECCENTRIC REDUCER, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 40x30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40x30</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -3270,12 +3270,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3300,12 +3300,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>ERE</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 40x30</t>
+          <t>ECCENTRIC REDUCER, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 40x30</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -3343,12 +3343,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3373,27 +3373,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CRE</t>
+          <t>ERE</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CONCENTRIC REDUCER, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 20x40</t>
+          <t>ECCENTRIC REDUCER, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 20x20</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>20x40</t>
+          <t>20x20</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3407,7 +3407,7 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -3416,12 +3416,12 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>6,5</t>
+          <t>10,16</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>39,00</t>
+          <t>40,64</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3451,22 +3451,22 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ECCENTRIC REDUCER, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 40x30</t>
+          <t>ECCENTRIC REDUCER, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH STDxSTD</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>40x30</t>
+          <t>STDxSTD</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -3489,12 +3489,12 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>43,8</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>131,4</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3519,32 +3519,32 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ERE</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ECCENTRIC REDUCER, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 20x20</t>
+          <t>NIPPLE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>20x20</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3562,12 +3562,12 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>10,16</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>81,28</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3592,32 +3592,32 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ERE</t>
+          <t>NIP</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ECCENTRIC REDUCER, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH STDxSTD</t>
+          <t>NIPPLE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>STDxSTD</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -3635,12 +3635,12 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>43,8</t>
+          <t>0,324</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>262,8</t>
+          <t>0,648</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3670,12 +3670,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NIPPLE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>NIPPLE, SMLS, CS, ASTM A53 GR B, ASME B36.10, BExTE, SCH 160 L= 100 mm</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3685,12 +3685,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>160</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BExTE</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3699,7 +3699,7 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -3708,12 +3708,12 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>44,7</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3028601.0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3738,12 +3738,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>NIPPLE, SMLS, CS, ASTM A106 GR B, ASME B36.10, PE, SCH 80 L= 100 mm</t>
+          <t>REDUCING TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3753,26 +3753,26 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>0,324</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>1,296</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3811,32 +3811,32 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NIP</t>
+          <t>RTE</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>NIPPLE, SMLS, CS, ASTM A53 GR B, ASME B36.10, BExTE, SCH 160 L= 100 mm</t>
+          <t>REDUCING TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 40x30</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>40x30</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>BExTE</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -3854,12 +3854,12 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>89,4</t>
+          <t>64,00</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>3028601.0</t>
+          <t>3028354.0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3889,36 +3889,36 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>REDUCING TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>REDUCING TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 40x40</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40x40</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -3927,12 +3927,12 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3962,22 +3962,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 40x30</t>
+          <t>REDUCING TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 20x30</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>40x30</t>
+          <t>20x30</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3991,7 +3991,7 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -4000,12 +4000,12 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>28,00</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>128,00</t>
+          <t>84,00</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3028354.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -4035,22 +4035,22 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 40x40</t>
+          <t>REDUCING TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 20x40</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>40x40</t>
+          <t>20x40</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4073,12 +4073,12 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>28,00</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>32,00</t>
+          <t>56,00</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4108,22 +4108,22 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 20x30</t>
+          <t>REDUCING TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH STDx20</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>20x30</t>
+          <t>STDx20</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -4146,12 +4146,12 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>28,00</t>
+          <t>31,1</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>168,00</t>
+          <t>124,4</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4181,22 +4181,22 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 20x40</t>
+          <t>REDUCING TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 30x20</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>20x40</t>
+          <t>30x20</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4210,7 +4210,7 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -4219,12 +4219,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>28,00</t>
+          <t>26,8</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>112,00</t>
+          <t>80,4</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4254,22 +4254,22 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH STDx20</t>
+          <t>REDUCING TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH STDxSTD</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>STDx20</t>
+          <t>STDxSTD</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4283,7 +4283,7 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>31,1</t>
+          <t>43,8</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>248,8</t>
+          <t>175,2</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3028725.0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4322,41 +4322,41 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 30x20</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>30x20</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="K54" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -4365,12 +4365,12 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>26,8</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>160,8</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4395,41 +4395,41 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>RTE</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>REDUCING TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH STDxSTD</t>
+          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>STDxSTD</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -4438,12 +4438,12 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>43,8</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>350,4</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3028725.0</t>
+          <t>3028322.0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4468,22 +4468,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -4511,12 +4511,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3028321.0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -4541,22 +4541,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>TEE</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SOCKOLET, CS, ASTM A105, MSS SP-97, SW, CLASS 3000</t>
+          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -4584,12 +4584,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4604,7 +4604,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3028322.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -4619,12 +4619,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>STRAIGHT TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 30</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4634,21 +4634,21 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K58" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -4657,12 +4657,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>18,83</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3028321.0</t>
+          <t>3028338.0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4692,12 +4692,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, CS, ASTM A105, ASME B16.11, SW, CLASS 3000</t>
+          <t>STRAIGHT TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4707,21 +4707,21 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -4730,12 +4730,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3028337.0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4765,12 +4765,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 30</t>
+          <t>STRAIGHT TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 40</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4794,7 +4794,7 @@
         </is>
       </c>
       <c r="K60" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -4803,12 +4803,12 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2,69</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>37,66</t>
+          <t>148,32</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4823,7 +4823,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3028338.0</t>
+          <t>3028335.0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4838,12 +4838,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 40</t>
+          <t>STRAIGHT TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 20</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="K61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -4876,12 +4876,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>8,44</t>
+          <t>29,00</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>16,88</t>
+          <t>145,00</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3028337.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4911,12 +4911,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 40</t>
+          <t>STRAIGHT TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 30</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4926,7 +4926,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4940,7 +4940,7 @@
         </is>
       </c>
       <c r="K62" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -4949,12 +4949,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>36,77</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>296,64</t>
+          <t>73,54</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3028335.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4984,12 +4984,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 20</t>
+          <t>STRAIGHT TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 30</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="K63" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -5022,12 +5022,12 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>29,00</t>
+          <t>93,00</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>232,00</t>
+          <t>279,00</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -5057,12 +5057,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 30</t>
+          <t>STRAIGHT TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH STD</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -5072,7 +5072,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>STD</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -5086,7 +5086,7 @@
         </is>
       </c>
       <c r="K64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -5095,12 +5095,12 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>36,77</t>
+          <t>93,00</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>147,08</t>
+          <t>465,00</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -5130,12 +5130,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 30</t>
+          <t>STRAIGHT TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH STD</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -5145,7 +5145,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>STD</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -5159,7 +5159,7 @@
         </is>
       </c>
       <c r="K65" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -5168,12 +5168,12 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>93,00</t>
+          <t>115,00</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>558,00</t>
+          <t>460,00</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5203,12 +5203,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH STD</t>
+          <t>STRAIGHT TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 30</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="K66" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -5241,12 +5241,12 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>93,00</t>
+          <t>443,55</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>930,00</t>
+          <t>1774,2</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5271,27 +5271,27 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH STD</t>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 30</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>40x30</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5305,7 +5305,7 @@
         </is>
       </c>
       <c r="K67" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -5314,12 +5314,12 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>115,00</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>920,00</t>
+          <t>7,24</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5344,27 +5344,27 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>TEE</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>STRAIGHT TEE, SMLS, CS, ASTM A234 GR WPB, ASME B16.9, BW, SCH 30</t>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 40</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>20x40</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -5378,7 +5378,7 @@
         </is>
       </c>
       <c r="K68" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -5387,12 +5387,12 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>443,55</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>3548,4</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>40x30</t>
+          <t>STDx30</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="K69" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -5460,12 +5460,12 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>14,48</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5500,17 +5500,17 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>20x40</t>
+          <t>STDx40</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5524,7 +5524,7 @@
         </is>
       </c>
       <c r="K70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -5533,12 +5533,12 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5573,17 +5573,17 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>STDx30</t>
+          <t>30x30</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -5597,7 +5597,7 @@
         </is>
       </c>
       <c r="K71" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -5606,12 +5606,12 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>17,69</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>70,76</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 30</t>
+          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 40</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5651,12 +5651,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>30x30</t>
+          <t>30x40</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -5670,7 +5670,7 @@
         </is>
       </c>
       <c r="K72" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -5679,12 +5679,12 @@
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>17,69</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>141,52</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -5743,7 +5743,7 @@
         </is>
       </c>
       <c r="K73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -5752,12 +5752,12 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -5816,7 +5816,7 @@
         </is>
       </c>
       <c r="K74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -5825,12 +5825,12 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5845,51 +5845,51 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3028718.0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>WELDOLET, CS, ASTM A105, MSS SP-97, BW, SCH 40</t>
+          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>30x40</t>
+          <t>-</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -5898,12 +5898,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3028718.0</t>
+          <t>3028631.0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5928,17 +5928,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SOCKETWELD FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5948,7 +5948,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="K76" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -5971,12 +5971,12 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>7,2</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3028631.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -6006,12 +6006,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH 30</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -6021,12 +6021,12 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -6035,7 +6035,7 @@
         </is>
       </c>
       <c r="K77" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -6044,12 +6044,12 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>20,4</t>
+          <t>9,94</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -6108,7 +6108,7 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>39,76</t>
+          <t>19,88</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -6181,7 +6181,7 @@
         </is>
       </c>
       <c r="K79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>19,88</t>
+          <t>9,94</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="K80" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>71,1</t>
+          <t>35,55</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6327,7 +6327,7 @@
         </is>
       </c>
       <c r="K81" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>85,32</t>
+          <t>42,66</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
@@ -6400,7 +6400,7 @@
         </is>
       </c>
       <c r="K82" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>414,58</t>
+          <t>174,56</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6473,7 +6473,7 @@
         </is>
       </c>
       <c r="K83" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>87,28</t>
+          <t>43,64</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="K84" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>519,00</t>
+          <t>294,1</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6619,7 +6619,7 @@
         </is>
       </c>
       <c r="K85" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>380,6</t>
+          <t>190,3</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6692,7 +6692,7 @@
         </is>
       </c>
       <c r="K86" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>659,96</t>
+          <t>329,98</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6765,7 +6765,7 @@
         </is>
       </c>
       <c r="K87" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>224,52</t>
+          <t>112,26</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -6838,7 +6838,7 @@
         </is>
       </c>
       <c r="K88" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -6847,12 +6847,12 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>50,49</t>
+          <t>37,42</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>2423,52</t>
+          <t>224,52</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6882,7 +6882,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH STD</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 30</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -6897,12 +6897,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="K89" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -6925,7 +6925,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>2524,5</t>
+          <t>1211,76</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6955,12 +6955,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH STD</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -6970,12 +6970,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>STD</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6984,7 +6984,7 @@
         </is>
       </c>
       <c r="K90" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -6993,12 +6993,12 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>65,43</t>
+          <t>50,49</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>785,16</t>
+          <t>1262,25</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -7028,7 +7028,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH STD</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 40</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -7043,12 +7043,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>STD</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="K91" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -7066,12 +7066,12 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>61,68</t>
+          <t>65,43</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>1973,76</t>
+          <t>392,58</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -7101,12 +7101,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 30</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, FF, SCH STD</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -7116,12 +7116,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>STD</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -7130,7 +7130,7 @@
         </is>
       </c>
       <c r="K92" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -7139,12 +7139,12 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>129,5</t>
+          <t>61,68</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>3626,00</t>
+          <t>863,52</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7164,22 +7164,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>VL</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>WNK</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
+          <t>WELD NECK FLANGE, CS, ASTM A105, ASME B16.5, CLASS 150, RF, SCH 30</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -7189,21 +7189,21 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>800</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K93" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -7212,12 +7212,12 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>129,5</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>1813,00</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7247,12 +7247,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -7267,16 +7267,16 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>800</t>
         </is>
       </c>
       <c r="K94" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -7285,12 +7285,12 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>15,00</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>120,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7320,12 +7320,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
+          <t>BALL VALVE W/INTEGRAL WELDED 2 NIPPLES, FB, FLOATING BALL, API 608, API 598, A105, CL 800, SW W/2 PE NIPPLES, MNF STD, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, API 607, LO</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -7340,16 +7340,16 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>800</t>
         </is>
       </c>
       <c r="K95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -7358,17 +7358,17 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>45,00</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>90,00</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CSO</t>
         </is>
       </c>
     </row>
@@ -7388,17 +7388,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR WCB, CL 150, RF, B16.5, SS316 BALL, SS316 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="K96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -7431,12 +7431,12 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>133,00</t>
+          <t>15,00</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>266,00</t>
+          <t>60,00</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7461,17 +7461,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>CHS</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
+          <t>BALL VALVE FL, FB, LP, FLOATING BALL, API 608, A216 GR WCB, CL 150, RF, B16.5, A105 + ENP BALL, SS410 STEM, 2 OR 3 PCS SPLIT BODY SIDE ENTRY, SPW SS304/GRAPH, API 607, LO</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -7495,7 +7495,7 @@
         </is>
       </c>
       <c r="K97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -7504,12 +7504,12 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>266,00</t>
+          <t>45,00</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>1064,00</t>
+          <t>45,00</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -7568,7 +7568,7 @@
         </is>
       </c>
       <c r="K98" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -7577,12 +7577,12 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>451,00</t>
+          <t>133,00</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>2706,00</t>
+          <t>133,00</t>
         </is>
       </c>
       <c r="O98" t="inlineStr">
@@ -7617,7 +7617,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -7641,7 +7641,7 @@
         </is>
       </c>
       <c r="K99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -7650,12 +7650,12 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>1580,00</t>
+          <t>266,00</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>6320,00</t>
+          <t>532,00</t>
         </is>
       </c>
       <c r="O99" t="inlineStr">
@@ -7680,17 +7680,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>CHS</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -7705,16 +7705,16 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -7723,12 +7723,12 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>19,00</t>
+          <t>451,00</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>38,00</t>
+          <t>1353,00</t>
         </is>
       </c>
       <c r="O100" t="inlineStr">
@@ -7753,17 +7753,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>GAT</t>
+          <t>CHS</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>HOSE GATE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPTxNH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREWED BONNET, PKG NON ASBESTOS, SOLID WEDGE, WEDGE B62, SEAT&amp;STEM BRONZE, NON RISING STEM, HO, UL LISTED/FM APPROVED</t>
+          <t>SWING CHECK VALVE FL, API 594, API 598, A216 GR WCB, CL 150, INST HORIZ/VERT, RF, B16.5, BOLTED COVER, SPW SS304/GRAPH, RENEWABLE SEATS, TRIM #8</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -7778,16 +7778,16 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>FNPTxMNH</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>300 PSI CWP</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K101" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -7796,12 +7796,12 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>1580,00</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>50,34</t>
+          <t>3160,00</t>
         </is>
       </c>
       <c r="O101" t="inlineStr">
@@ -7836,7 +7836,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -7860,7 +7860,7 @@
         </is>
       </c>
       <c r="K102" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -7869,12 +7869,12 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>29,00</t>
+          <t>19,00</t>
         </is>
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>232,00</t>
+          <t>19,00</t>
         </is>
       </c>
       <c r="O102" t="inlineStr">
@@ -7904,12 +7904,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+          <t>HOSE GATE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPTxNH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREWED BONNET, PKG NON ASBESTOS, SOLID WEDGE, WEDGE B62, SEAT&amp;STEM BRONZE, NON RISING STEM, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -7924,16 +7924,16 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FNPTxMNH</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300 PSI CWP</t>
         </is>
       </c>
       <c r="K103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -7942,12 +7942,12 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>34,00</t>
+          <t>8,39</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>68,00</t>
+          <t>25,17</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -7977,12 +7977,12 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -7997,16 +7997,16 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>125</t>
         </is>
       </c>
       <c r="K104" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -8015,12 +8015,12 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>88,00</t>
+          <t>29,00</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>176,00</t>
+          <t>116,00</t>
         </is>
       </c>
       <c r="O104" t="inlineStr">
@@ -8055,7 +8055,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -8079,7 +8079,7 @@
         </is>
       </c>
       <c r="K105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -8088,12 +8088,12 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>144,00</t>
+          <t>34,00</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>576,00</t>
+          <t>34,00</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
@@ -8128,7 +8128,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="K106" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -8161,12 +8161,12 @@
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>284,00</t>
+          <t>68,00</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>3408,00</t>
+          <t>272,00</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -8196,12 +8196,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -8225,7 +8225,7 @@
         </is>
       </c>
       <c r="K107" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -8234,12 +8234,12 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>406,00</t>
+          <t>88,00</t>
         </is>
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>4872,00</t>
+          <t>88,00</t>
         </is>
       </c>
       <c r="O107" t="inlineStr">
@@ -8274,7 +8274,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -8298,7 +8298,7 @@
         </is>
       </c>
       <c r="K108" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -8307,12 +8307,12 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>370,00</t>
+          <t>104,00</t>
         </is>
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>2960,00</t>
+          <t>104,00</t>
         </is>
       </c>
       <c r="O108" t="inlineStr">
@@ -8342,12 +8342,12 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="K109" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -8380,12 +8380,12 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>524,00</t>
+          <t>144,00</t>
         </is>
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>3144,00</t>
+          <t>144,00</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -8410,17 +8410,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>GLB</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPTxNH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -8435,16 +8435,16 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>FNPTxMNH</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>300 PSI CWP</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K110" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -8453,17 +8453,17 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>7,08</t>
+          <t>144,00</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>339,84</t>
+          <t>144,00</t>
         </is>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CSO</t>
         </is>
       </c>
     </row>
@@ -8473,27 +8473,27 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>3028739.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>FIGURE-8 BLANK, CS, ASTM A516 GR 70, ASME B16.48, CLASS 150, RF</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, HO</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -8517,7 +8517,7 @@
         </is>
       </c>
       <c r="K111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -8526,12 +8526,12 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>298,00</t>
         </is>
       </c>
       <c r="N111" t="inlineStr">
         <is>
-          <t>10,78</t>
+          <t>894,00</t>
         </is>
       </c>
       <c r="O111" t="inlineStr">
@@ -8546,27 +8546,27 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>3028740.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>F8</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>FIGURE-8 BLANK, CS, ASTM A516 GR 70, ASME B16.48, CLASS 150, RF</t>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -8581,16 +8581,16 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>125</t>
         </is>
       </c>
       <c r="K112" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -8599,12 +8599,12 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>8,32</t>
+          <t>284,00</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>83,2</t>
+          <t>1704,00</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -8624,22 +8624,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -8663,7 +8663,7 @@
         </is>
       </c>
       <c r="K113" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -8672,12 +8672,12 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>406,00</t>
         </is>
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>2436,00</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -8697,22 +8697,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>GATE VALVE FL, MSS SP-128 TYPE II, A536 Gr 65-45-12, CL 125, FF, B16.1, BB, NON METALLIC FLAT GASKET EPDM, PKG EPDM, SOLID WEDGE, WEDGE DUCTILE IRON EPDM ENCAPSULATED, STEM BRONZE, OS&amp;Y/RSNRO, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -8732,11 +8732,11 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>125</t>
         </is>
       </c>
       <c r="K114" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -8745,12 +8745,12 @@
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>370,00</t>
         </is>
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>1480,00</t>
         </is>
       </c>
       <c r="O114" t="inlineStr">
@@ -8770,22 +8770,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>GAT</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>GATE VALVE FL, API 600, API 598, A216 GR WCB, CL 150, RF, B16.5, BB, SPW SS304/GRAPH, PKG GRAPH, TRIM #8, RENEWABLE SEATS, FLEXIBLE WEDGE, STEM OS&amp;Y/RSNRO, GO</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -8809,7 +8809,7 @@
         </is>
       </c>
       <c r="K115" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -8818,12 +8818,12 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>0,097</t>
+          <t>524,00</t>
         </is>
       </c>
       <c r="N115" t="inlineStr">
         <is>
-          <t>1,552</t>
+          <t>1572,00</t>
         </is>
       </c>
       <c r="O115" t="inlineStr">
@@ -8843,22 +8843,22 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>VL</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>GLB</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>ANGLE HOSE VALVE THD, MSS SP-80, B62 UNS C83600, 300 PSI CWP, FNPTxNH W/CAP AND CHAIN, FNPT B1.20.1 AND NH NFPA 1963, SCREW-IN BONNET, RENEWABLE DISC, PKG NON ASBESTOS, DISC&amp;STEM BRONZE, RISING STEM, HO, UL LISTED/FM APPROVED</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -8873,16 +8873,16 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>FNPTxMNH</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>300 PSI CWP</t>
         </is>
       </c>
       <c r="K116" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -8891,12 +8891,12 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>169,92</t>
         </is>
       </c>
       <c r="O116" t="inlineStr">
@@ -8911,27 +8911,27 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3028739.0</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>FIGURE-8 BLANK, CS, ASTM A516 GR 70, ASME B16.48, CLASS 150, RF</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -8955,7 +8955,7 @@
         </is>
       </c>
       <c r="K117" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -8964,12 +8964,12 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>0,148</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>0,592</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
@@ -8984,27 +8984,27 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3028740.0</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>GAS</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>FIGURE-8 BLANK, CS, ASTM A516 GR 70, ASME B16.48, CLASS 150, RF</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -9019,7 +9019,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -9028,7 +9028,7 @@
         </is>
       </c>
       <c r="K118" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -9037,12 +9037,12 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>8,32</t>
         </is>
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>41,6</t>
         </is>
       </c>
       <c r="O118" t="inlineStr">
@@ -9077,7 +9077,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -9110,12 +9110,12 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>0,035</t>
         </is>
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
@@ -9150,7 +9150,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -9174,7 +9174,7 @@
         </is>
       </c>
       <c r="K120" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -9183,12 +9183,12 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="O120" t="inlineStr">
@@ -9223,7 +9223,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -9256,12 +9256,12 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>0,302</t>
+          <t>0,097</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2,416</t>
+          <t>0,776</t>
         </is>
       </c>
       <c r="O121" t="inlineStr">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -9320,7 +9320,7 @@
         </is>
       </c>
       <c r="K122" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -9329,12 +9329,12 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="O122" t="inlineStr">
@@ -9364,12 +9364,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -9384,7 +9384,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -9393,7 +9393,7 @@
         </is>
       </c>
       <c r="K123" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -9402,12 +9402,12 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>0,434</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="N123" t="inlineStr">
         <is>
-          <t>13,02</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="O123" t="inlineStr">
@@ -9442,7 +9442,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>10,00</t>
+          <t>3,00</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -9466,7 +9466,7 @@
         </is>
       </c>
       <c r="K124" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -9475,12 +9475,12 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>0,598</t>
+          <t>0,148</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>7,176</t>
+          <t>0,296</t>
         </is>
       </c>
       <c r="O124" t="inlineStr">
@@ -9515,7 +9515,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>12,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -9539,7 +9539,7 @@
         </is>
       </c>
       <c r="K125" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -9548,12 +9548,12 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="O125" t="inlineStr">
@@ -9583,12 +9583,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>4,00</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -9612,7 +9612,7 @@
         </is>
       </c>
       <c r="K126" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -9621,12 +9621,12 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>8,74</t>
+          <t>0,705</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -9656,12 +9656,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>14,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -9685,7 +9685,7 @@
         </is>
       </c>
       <c r="K127" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -9694,12 +9694,12 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>1,102</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>37,468</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="O127" t="inlineStr">
@@ -9729,12 +9729,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>6,00</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>FF</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -9758,7 +9758,7 @@
         </is>
       </c>
       <c r="K128" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -9767,12 +9767,12 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,302</t>
         </is>
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="O128" t="inlineStr">
@@ -9802,12 +9802,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>16,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -9822,7 +9822,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -9831,7 +9831,7 @@
         </is>
       </c>
       <c r="K129" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -9840,12 +9840,12 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>1,432</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>17,184</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="O129" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>24,00</t>
+          <t>8,00</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -9904,7 +9904,7 @@
         </is>
       </c>
       <c r="K130" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -9913,12 +9913,12 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2,216</t>
+          <t>0,434</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
         <is>
-          <t>26,592</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="O130" t="inlineStr">
@@ -9938,27 +9938,27 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>10,00</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>70mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -9968,16 +9968,16 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K131" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -9986,12 +9986,12 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>0,125</t>
+          <t>0,598</t>
         </is>
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="O131" t="inlineStr">
@@ -10011,27 +10011,27 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -10041,16 +10041,16 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K132" t="n">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -10059,12 +10059,12 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
         <is>
-          <t>22,56</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="O132" t="inlineStr">
@@ -10084,27 +10084,27 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>12,00</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>100mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -10114,16 +10114,16 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K133" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -10132,12 +10132,12 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>0,235</t>
+          <t>0,905</t>
         </is>
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="O133" t="inlineStr">
@@ -10157,27 +10157,27 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>90mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -10187,12 +10187,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K134" t="n">
@@ -10205,12 +10205,12 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>0,888</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="O134" t="inlineStr">
@@ -10225,32 +10225,32 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>3029340.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>14,00</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>90mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -10260,16 +10260,16 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K135" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -10278,12 +10278,12 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>1,102</t>
         </is>
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>7,104</t>
+          <t>18,734</t>
         </is>
       </c>
       <c r="O135" t="inlineStr">
@@ -10303,22 +10303,22 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+          <t>NONMETALLIC FLAT GASKET, ARAMID FIBER REINFORCED NBR, ASME B16.21, THK 1/8", CLASS 150, FF</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -10333,7 +10333,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>FF</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -10342,7 +10342,7 @@
         </is>
       </c>
       <c r="K136" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -10351,12 +10351,12 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="O136" t="inlineStr">
@@ -10376,27 +10376,27 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>16,00</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -10406,16 +10406,16 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K137" t="n">
-        <v>176</v>
+        <v>6</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -10424,12 +10424,12 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>0,401</t>
+          <t>1,432</t>
         </is>
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>70,576</t>
+          <t>8,592</t>
         </is>
       </c>
       <c r="O137" t="inlineStr">
@@ -10444,32 +10444,32 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>3029333.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>BOLT</t>
+          <t>GAS</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+          <t>SPIRAL WOUND GASKET, SS, AISI 304/GRAPHITE, ASME B16.20, THK 1/8", CLASS 150, RF</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>24,00</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>115mm</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -10479,16 +10479,16 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150</t>
         </is>
       </c>
       <c r="K138" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -10497,12 +10497,12 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>0,401</t>
+          <t>2,216</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>9,624</t>
+          <t>22,16</t>
         </is>
       </c>
       <c r="O138" t="inlineStr">
@@ -10532,17 +10532,17 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>120mm</t>
+          <t>70mm</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -10561,7 +10561,7 @@
         </is>
       </c>
       <c r="K139" t="n">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -10570,12 +10570,12 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="N139" t="inlineStr">
         <is>
-          <t>22,96</t>
+          <t>2,00</t>
         </is>
       </c>
       <c r="O139" t="inlineStr">
@@ -10605,17 +10605,17 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>120mm</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -10634,7 +10634,7 @@
         </is>
       </c>
       <c r="K140" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -10643,12 +10643,12 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>32,8</t>
+          <t>22,56</t>
         </is>
       </c>
       <c r="O140" t="inlineStr">
@@ -10678,17 +10678,17 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>135mm</t>
+          <t>100mm</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -10707,7 +10707,7 @@
         </is>
       </c>
       <c r="K141" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -10716,12 +10716,12 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>0,438</t>
+          <t>0,235</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>3,504</t>
+          <t>7,52</t>
         </is>
       </c>
       <c r="O141" t="inlineStr">
@@ -10736,7 +10736,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>3029342.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -10751,17 +10751,17 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>0,875</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>125mm</t>
+          <t>90mm</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -10780,7 +10780,7 @@
         </is>
       </c>
       <c r="K142" t="n">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -10789,12 +10789,12 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>0,592</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>42,624</t>
+          <t>0,888</t>
         </is>
       </c>
       <c r="O142" t="inlineStr">
@@ -10809,7 +10809,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3029340.0</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -10824,17 +10824,17 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>0,875</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>135mm</t>
+          <t>90mm</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -10853,7 +10853,7 @@
         </is>
       </c>
       <c r="K143" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -10862,12 +10862,12 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>0,617</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="N143" t="inlineStr">
         <is>
-          <t>7,404</t>
+          <t>7,104</t>
         </is>
       </c>
       <c r="O143" t="inlineStr">
@@ -10902,12 +10902,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>145mm</t>
+          <t>95mm</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -10926,7 +10926,7 @@
         </is>
       </c>
       <c r="K144" t="n">
-        <v>228</v>
+        <v>4</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -10935,12 +10935,12 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>0,873</t>
+          <t>0,229</t>
         </is>
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>199,044</t>
+          <t>0,916</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
@@ -10970,17 +10970,17 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>145mm</t>
+          <t>115mm</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -10999,7 +10999,7 @@
         </is>
       </c>
       <c r="K145" t="n">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -11008,12 +11008,12 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>0,873</t>
+          <t>0,401</t>
         </is>
       </c>
       <c r="N145" t="inlineStr">
         <is>
-          <t>178,092</t>
+          <t>64,16</t>
         </is>
       </c>
       <c r="O145" t="inlineStr">
@@ -11028,7 +11028,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3029333.0</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -11043,17 +11043,17 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>150mm</t>
+          <t>115mm</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -11072,7 +11072,7 @@
         </is>
       </c>
       <c r="K146" t="n">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -11081,12 +11081,12 @@
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,401</t>
         </is>
       </c>
       <c r="N146" t="inlineStr">
         <is>
-          <t>113,92</t>
+          <t>12,832</t>
         </is>
       </c>
       <c r="O146" t="inlineStr">
@@ -11116,17 +11116,17 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>1,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>150mm</t>
+          <t>120mm</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -11145,7 +11145,7 @@
         </is>
       </c>
       <c r="K147" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -11154,12 +11154,12 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="N147" t="inlineStr">
         <is>
-          <t>85,44</t>
+          <t>36,08</t>
         </is>
       </c>
       <c r="O147" t="inlineStr">
@@ -11194,12 +11194,12 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>190mm</t>
+          <t>120mm</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -11218,7 +11218,7 @@
         </is>
       </c>
       <c r="K148" t="n">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -11227,12 +11227,12 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>1,721</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>206,52</t>
+          <t>26,24</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
@@ -11247,7 +11247,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3029333.0</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -11262,17 +11262,17 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>125mm</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K149" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="N149" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="O149" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>3029340.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -11340,12 +11340,12 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2,00</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>135mm</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -11355,16 +11355,16 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K150" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -11373,12 +11373,12 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,438</t>
         </is>
       </c>
       <c r="N150" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>3,504</t>
         </is>
       </c>
       <c r="O150" t="inlineStr">
@@ -11393,7 +11393,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3029342.0</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -11408,17 +11408,17 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>0,875</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>125mm</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -11428,16 +11428,16 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K151" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -11446,12 +11446,12 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,592</t>
         </is>
       </c>
       <c r="N151" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>71,04</t>
         </is>
       </c>
       <c r="O151" t="inlineStr">
@@ -11481,17 +11481,17 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>3,00</t>
+          <t>0,875</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>135mm</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -11501,16 +11501,16 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K152" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -11519,12 +11519,12 @@
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,617</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>7,404</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -11554,17 +11554,17 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>0,875</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>135mm</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -11574,16 +11574,16 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K153" t="n">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -11592,12 +11592,12 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,617</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>3,702</t>
         </is>
       </c>
       <c r="O153" t="inlineStr">
@@ -11627,17 +11627,17 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>4,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>145mm</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -11647,16 +11647,16 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K154" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -11665,12 +11665,12 @@
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,873</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>41,904</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
@@ -11700,17 +11700,17 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>145mm</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -11720,16 +11720,16 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K155" t="n">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -11738,12 +11738,12 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,873</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>178,092</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
@@ -11758,7 +11758,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>3029333.0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -11773,17 +11773,17 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>6,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150mm</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -11793,16 +11793,16 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K156" t="n">
-        <v>24</v>
+        <v>112</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -11811,12 +11811,12 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>99,68</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
@@ -11846,17 +11846,17 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
+          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>150mm</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -11866,16 +11866,16 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K157" t="n">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -11884,12 +11884,12 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>85,44</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -11924,12 +11924,12 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>8,00</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>190mm</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -11939,16 +11939,16 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>-</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K158" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -11957,599 +11957,15 @@
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>1,721</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>344,2</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>158</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>8,00</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="K159" t="n">
-        <v>8</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O159" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>159</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>3029342.0</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>10,00</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="K160" t="n">
-        <v>72</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O160" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>160</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>12,00</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="K161" t="n">
-        <v>12</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O161" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>161</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>14,00</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="K162" t="n">
-        <v>228</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O162" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>162</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>14,00</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="K163" t="n">
-        <v>204</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O163" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>163</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B1.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>16,00</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="K164" t="n">
-        <v>128</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O164" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>164</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>16,00</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="K165" t="n">
-        <v>96</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O165" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>165</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>BL</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>BOLT</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>STUD BOLTS W/2 HVY HEX NUTS, CS, ASTM A193 GR B7/A194 GR 2H, ASME B18.2.1/B18.2.2</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>24,00</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="K166" t="n">
-        <v>120</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>e.a</t>
-        </is>
-      </c>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="N166" t="inlineStr">
-        <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="O166" t="inlineStr">
         <is>
           <t>-</t>
         </is>
